--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_14_34.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_14_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1834173.587825698</v>
+        <v>1833418.794842577</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2896994.29084304</v>
+        <v>2896994.290843036</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736551</v>
+        <v>504792.0292736559</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
         <v>8.816525072005941</v>
       </c>
-      <c r="S8" t="n">
+      <c r="V8" t="n">
         <v>10.00967878293136</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1212,14 +1212,14 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
         <v>10.00967878293136</v>
       </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
@@ -1227,46 +1227,46 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
         <v>8.816525072005941</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
         <v>10.00967878293136</v>
-      </c>
-      <c r="S9" t="n">
-        <v>10.00967878293136</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1294,70 +1294,70 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>8.816525072005941</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
         <v>10.00967878293136</v>
       </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
         <v>10.00967878293136</v>
       </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>8.816525072005941</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="n">
         <v>10.00967878293136</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1370,10 +1370,10 @@
         <v>287.4621822983377</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>275.4734992560195</v>
       </c>
       <c r="D11" t="n">
-        <v>266.4548033005474</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>288.196940870453</v>
@@ -1385,10 +1385,10 @@
         <v>308.7702359084508</v>
       </c>
       <c r="H11" t="n">
-        <v>221.4059562765828</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>47.94631158407881</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>70.59762315252746</v>
+        <v>70.59762315252742</v>
       </c>
       <c r="T11" t="n">
         <v>117.1465288645459</v>
       </c>
       <c r="U11" t="n">
-        <v>149.6530179828526</v>
+        <v>149.6530179828525</v>
       </c>
       <c r="V11" t="n">
-        <v>104.5458282704772</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>256.2686590164737</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>108.6107411591932</v>
       </c>
       <c r="Y11" t="n">
         <v>286.9655150454191</v>
@@ -1467,7 +1467,7 @@
         <v>96.19049711964605</v>
       </c>
       <c r="I12" t="n">
-        <v>57.90206971882209</v>
+        <v>57.90206971882208</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>41.52047263646533</v>
+        <v>41.52047263646531</v>
       </c>
       <c r="S12" t="n">
         <v>145.9864318313356</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>79.07889317303481</v>
+        <v>79.07889317303479</v>
       </c>
       <c r="C13" t="n">
-        <v>65.2788880184353</v>
+        <v>65.27888801843527</v>
       </c>
       <c r="D13" t="n">
-        <v>48.90025241601369</v>
+        <v>48.90025241601366</v>
       </c>
       <c r="E13" t="n">
-        <v>47.84800227179313</v>
+        <v>47.84800227179311</v>
       </c>
       <c r="F13" t="n">
-        <v>48.31492659997944</v>
+        <v>48.31492659997942</v>
       </c>
       <c r="G13" t="n">
-        <v>64.35108710701114</v>
+        <v>64.35108710701111</v>
       </c>
       <c r="H13" t="n">
-        <v>53.01713980218874</v>
+        <v>53.01713980218871</v>
       </c>
       <c r="I13" t="n">
-        <v>32.94647717468514</v>
+        <v>32.94647717468523</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>34.65991636537677</v>
+        <v>34.65991636537673</v>
       </c>
       <c r="S13" t="n">
-        <v>104.7746029199932</v>
+        <v>104.7746029199931</v>
       </c>
       <c r="T13" t="n">
         <v>127.1870160031714</v>
@@ -1594,7 +1594,7 @@
         <v>126.2990176390768</v>
       </c>
       <c r="Y13" t="n">
-        <v>117.1738853951445</v>
+        <v>117.1738853951444</v>
       </c>
     </row>
     <row r="14">
@@ -1607,25 +1607,25 @@
         <v>287.4621822983377</v>
       </c>
       <c r="C14" t="n">
-        <v>275.4734992560195</v>
+        <v>275.4734992560194</v>
       </c>
       <c r="D14" t="n">
-        <v>266.4548033005474</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>307.3687569584301</v>
+        <v>197.6389622003388</v>
       </c>
       <c r="G14" t="n">
         <v>308.7702359084508</v>
       </c>
       <c r="H14" t="n">
-        <v>12.48762338555449</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>47.94631158407879</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>70.59762315252745</v>
+        <v>70.59762315252742</v>
       </c>
       <c r="T14" t="n">
-        <v>117.1465288645459</v>
+        <v>117.1465288645458</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>149.6530179828525</v>
       </c>
       <c r="V14" t="n">
         <v>230.9685595385168</v>
@@ -1673,7 +1673,7 @@
         <v>275.5689172492204</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>286.9655150454191</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>79.0788931730348</v>
+        <v>79.07889317303477</v>
       </c>
       <c r="C16" t="n">
-        <v>65.27888801843528</v>
+        <v>65.27888801843525</v>
       </c>
       <c r="D16" t="n">
-        <v>48.90025241601367</v>
+        <v>48.90025241601364</v>
       </c>
       <c r="E16" t="n">
-        <v>47.84800227179312</v>
+        <v>47.84800227179309</v>
       </c>
       <c r="F16" t="n">
-        <v>48.31492659997943</v>
+        <v>48.3149265999794</v>
       </c>
       <c r="G16" t="n">
-        <v>64.35108710701112</v>
+        <v>64.3510871070111</v>
       </c>
       <c r="H16" t="n">
-        <v>53.01713980218872</v>
+        <v>53.01713980218869</v>
       </c>
       <c r="I16" t="n">
-        <v>32.94647717468526</v>
+        <v>32.94647717468523</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>34.65991636537676</v>
+        <v>34.65991636537673</v>
       </c>
       <c r="S16" t="n">
-        <v>104.7746029199932</v>
+        <v>104.7746029199931</v>
       </c>
       <c r="T16" t="n">
         <v>127.1870160031714</v>
@@ -1828,10 +1828,10 @@
         <v>180.6539156432736</v>
       </c>
       <c r="X16" t="n">
-        <v>126.2990176390768</v>
+        <v>126.2990176390767</v>
       </c>
       <c r="Y16" t="n">
-        <v>117.1738853951445</v>
+        <v>117.1738853951444</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>224.1916469265039</v>
+        <v>224.1916469265038</v>
       </c>
       <c r="C17" t="n">
         <v>212.2029638841856</v>
       </c>
       <c r="D17" t="n">
-        <v>203.1842679287136</v>
+        <v>203.1842679287135</v>
       </c>
       <c r="E17" t="n">
         <v>224.9264054986191</v>
       </c>
       <c r="F17" t="n">
-        <v>244.0982215865963</v>
+        <v>244.0982215865962</v>
       </c>
       <c r="G17" t="n">
-        <v>245.4997005366169</v>
+        <v>245.4997005366168</v>
       </c>
       <c r="H17" t="n">
-        <v>158.135420904749</v>
+        <v>158.1354209047489</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,22 +1892,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>7.327087780693562</v>
+        <v>7.327087780693534</v>
       </c>
       <c r="T17" t="n">
-        <v>53.87599349271199</v>
+        <v>53.87599349271196</v>
       </c>
       <c r="U17" t="n">
-        <v>86.38248261101865</v>
+        <v>86.38248261101862</v>
       </c>
       <c r="V17" t="n">
-        <v>167.698024166683</v>
+        <v>167.6980241666829</v>
       </c>
       <c r="W17" t="n">
-        <v>192.9981236446399</v>
+        <v>192.9981236446398</v>
       </c>
       <c r="X17" t="n">
-        <v>212.2983818773865</v>
+        <v>212.2983818773864</v>
       </c>
       <c r="Y17" t="n">
         <v>223.6949796735852</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>15.80835780120091</v>
+        <v>15.80835780120088</v>
       </c>
       <c r="C19" t="n">
-        <v>2.008352646601395</v>
+        <v>2.008352646601367</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.080551735177238</v>
+        <v>1.080551735177209</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2044,31 +2044,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>18.17731033224807</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>134.9875562192412</v>
       </c>
       <c r="S19" t="n">
-        <v>41.50406754815927</v>
+        <v>41.50406754815924</v>
       </c>
       <c r="T19" t="n">
-        <v>63.91648063133751</v>
+        <v>63.91648063133748</v>
       </c>
       <c r="U19" t="n">
-        <v>118.3938685259479</v>
+        <v>118.3938685259478</v>
       </c>
       <c r="V19" t="n">
-        <v>92.2164942008265</v>
+        <v>92.21649420082647</v>
       </c>
       <c r="W19" t="n">
-        <v>270.5482468229288</v>
+        <v>117.3833802714397</v>
       </c>
       <c r="X19" t="n">
-        <v>63.02848226724288</v>
+        <v>63.02848226724285</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.90335002331057</v>
+        <v>53.90335002331054</v>
       </c>
     </row>
     <row r="20">
@@ -2084,19 +2084,19 @@
         <v>212.2029638841856</v>
       </c>
       <c r="D20" t="n">
-        <v>203.1842679287138</v>
+        <v>203.1842679287135</v>
       </c>
       <c r="E20" t="n">
         <v>224.9264054986191</v>
       </c>
       <c r="F20" t="n">
-        <v>244.0982215865963</v>
+        <v>244.0982215865962</v>
       </c>
       <c r="G20" t="n">
-        <v>245.4997005366169</v>
+        <v>245.4997005366168</v>
       </c>
       <c r="H20" t="n">
-        <v>158.135420904749</v>
+        <v>158.1354209047489</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,22 +2129,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>7.327087780693562</v>
+        <v>7.327087780693534</v>
       </c>
       <c r="T20" t="n">
-        <v>53.87599349271199</v>
+        <v>53.87599349271196</v>
       </c>
       <c r="U20" t="n">
-        <v>86.38248261101865</v>
+        <v>86.38248261101862</v>
       </c>
       <c r="V20" t="n">
-        <v>167.698024166683</v>
+        <v>167.6980241666829</v>
       </c>
       <c r="W20" t="n">
-        <v>192.9981236446399</v>
+        <v>192.9981236446398</v>
       </c>
       <c r="X20" t="n">
-        <v>212.2983818773865</v>
+        <v>212.2983818773864</v>
       </c>
       <c r="Y20" t="n">
         <v>223.6949796735852</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>15.80835780120091</v>
+        <v>15.80835780120088</v>
       </c>
       <c r="C22" t="n">
-        <v>2.008352646601395</v>
+        <v>2.008352646601367</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>134.9875562192413</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.080551735177238</v>
+        <v>1.080551735177209</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>41.50406754815927</v>
+        <v>41.50406754815924</v>
       </c>
       <c r="T22" t="n">
-        <v>63.91648063133751</v>
+        <v>63.91648063133748</v>
       </c>
       <c r="U22" t="n">
-        <v>118.3938685259479</v>
+        <v>118.3938685259478</v>
       </c>
       <c r="V22" t="n">
-        <v>92.2164942008265</v>
+        <v>92.21649420082647</v>
       </c>
       <c r="W22" t="n">
-        <v>117.3833802714398</v>
+        <v>117.3833802714397</v>
       </c>
       <c r="X22" t="n">
-        <v>198.0160384864839</v>
+        <v>63.02848226724285</v>
       </c>
       <c r="Y22" t="n">
-        <v>53.90335002331057</v>
+        <v>53.90335002331054</v>
       </c>
     </row>
     <row r="23">
@@ -2321,13 +2321,13 @@
         <v>212.2029638841856</v>
       </c>
       <c r="D23" t="n">
-        <v>203.1842679287136</v>
+        <v>203.1842679287135</v>
       </c>
       <c r="E23" t="n">
         <v>224.9264054986191</v>
       </c>
       <c r="F23" t="n">
-        <v>244.0982215865963</v>
+        <v>244.0982215865962</v>
       </c>
       <c r="G23" t="n">
         <v>245.4997005366169</v>
@@ -2366,22 +2366,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>7.327087780693562</v>
+        <v>7.327087780693546</v>
       </c>
       <c r="T23" t="n">
-        <v>53.87599349271199</v>
+        <v>53.87599349271196</v>
       </c>
       <c r="U23" t="n">
-        <v>86.38248261101865</v>
+        <v>86.38248261101862</v>
       </c>
       <c r="V23" t="n">
-        <v>167.698024166683</v>
+        <v>167.6980241666829</v>
       </c>
       <c r="W23" t="n">
-        <v>192.9981236446399</v>
+        <v>192.9981236446398</v>
       </c>
       <c r="X23" t="n">
-        <v>212.2983818773865</v>
+        <v>212.2983818773864</v>
       </c>
       <c r="Y23" t="n">
         <v>223.6949796735852</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>18.01737592820934</v>
+        <v>15.80835780120088</v>
       </c>
       <c r="C25" t="n">
-        <v>2.008352646601395</v>
+        <v>2.008352646601367</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2485,10 +2485,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.080551735177238</v>
+        <v>1.080551735177209</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2518,31 +2518,31 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>15.86402836161127</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>137.300838189878</v>
       </c>
       <c r="S25" t="n">
-        <v>41.50406754815927</v>
+        <v>41.50406754815924</v>
       </c>
       <c r="T25" t="n">
-        <v>63.91648063133751</v>
+        <v>63.91648063133748</v>
       </c>
       <c r="U25" t="n">
-        <v>118.3938685259479</v>
+        <v>118.3938685259478</v>
       </c>
       <c r="V25" t="n">
-        <v>92.2164942008265</v>
+        <v>92.21649420082647</v>
       </c>
       <c r="W25" t="n">
-        <v>117.3833802714398</v>
+        <v>117.3833802714397</v>
       </c>
       <c r="X25" t="n">
-        <v>63.02848226724288</v>
+        <v>63.02848226724285</v>
       </c>
       <c r="Y25" t="n">
-        <v>53.90335002331057</v>
+        <v>53.90335002331054</v>
       </c>
     </row>
     <row r="26">
@@ -2570,10 +2570,10 @@
         <v>308.7702359084508</v>
       </c>
       <c r="H26" t="n">
-        <v>221.4059562765828</v>
+        <v>221.4059562765836</v>
       </c>
       <c r="I26" t="n">
-        <v>47.94631158407877</v>
+        <v>47.94631158407879</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.59762315252742</v>
+        <v>70.59762315252743</v>
       </c>
       <c r="T26" t="n">
         <v>117.1465288645459</v>
@@ -2618,7 +2618,7 @@
         <v>256.2686590164737</v>
       </c>
       <c r="X26" t="n">
-        <v>275.5689172492206</v>
+        <v>275.5689172492204</v>
       </c>
       <c r="Y26" t="n">
         <v>286.9655150454191</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>79.07889317303479</v>
+        <v>79.0788931730348</v>
       </c>
       <c r="C28" t="n">
-        <v>65.27888801843527</v>
+        <v>65.27888801843528</v>
       </c>
       <c r="D28" t="n">
-        <v>48.90025241601366</v>
+        <v>48.90025241601367</v>
       </c>
       <c r="E28" t="n">
-        <v>47.84800227179311</v>
+        <v>47.84800227179312</v>
       </c>
       <c r="F28" t="n">
-        <v>48.31492659997942</v>
+        <v>48.31492659997943</v>
       </c>
       <c r="G28" t="n">
-        <v>64.35108710701111</v>
+        <v>64.35108710701112</v>
       </c>
       <c r="H28" t="n">
-        <v>53.0171398021887</v>
+        <v>53.01713980218872</v>
       </c>
       <c r="I28" t="n">
-        <v>32.94647717468523</v>
+        <v>32.94647717468525</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>34.65991636537674</v>
+        <v>34.65991636537675</v>
       </c>
       <c r="S28" t="n">
-        <v>104.7746029199931</v>
+        <v>104.7746029199932</v>
       </c>
       <c r="T28" t="n">
         <v>127.1870160031714</v>
@@ -2779,7 +2779,7 @@
         <v>126.2990176390768</v>
       </c>
       <c r="Y28" t="n">
-        <v>117.1738853951444</v>
+        <v>117.1738853951445</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>221.4059562765828</v>
       </c>
       <c r="I29" t="n">
-        <v>47.94631158407877</v>
+        <v>47.94631158407874</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.59762315252743</v>
+        <v>70.59762315252742</v>
       </c>
       <c r="T29" t="n">
         <v>117.1465288645459</v>
@@ -2889,7 +2889,7 @@
         <v>96.19049711964605</v>
       </c>
       <c r="I30" t="n">
-        <v>57.90206971882209</v>
+        <v>57.90206971882208</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>41.52047263646533</v>
+        <v>41.5204726364653</v>
       </c>
       <c r="S30" t="n">
         <v>145.9864318313356</v>
@@ -2965,10 +2965,10 @@
         <v>64.35108710701111</v>
       </c>
       <c r="H31" t="n">
-        <v>53.01713980218871</v>
+        <v>53.0171398021887</v>
       </c>
       <c r="I31" t="n">
-        <v>32.94647717468524</v>
+        <v>32.94647717468523</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>34.65991636537674</v>
+        <v>34.65991636537673</v>
       </c>
       <c r="S31" t="n">
         <v>104.7746029199931</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>284.8724782036177</v>
+        <v>284.8724782036178</v>
       </c>
       <c r="C32" t="n">
-        <v>272.8837951612994</v>
+        <v>272.8837951612996</v>
       </c>
       <c r="D32" t="n">
-        <v>263.8650992058274</v>
+        <v>263.8650992058276</v>
       </c>
       <c r="E32" t="n">
-        <v>285.6072367757329</v>
+        <v>285.6072367757331</v>
       </c>
       <c r="F32" t="n">
-        <v>304.77905286371</v>
+        <v>304.7790528637103</v>
       </c>
       <c r="G32" t="n">
-        <v>306.1805318137307</v>
+        <v>306.1805318137309</v>
       </c>
       <c r="H32" t="n">
-        <v>218.8162521818628</v>
+        <v>218.816252181863</v>
       </c>
       <c r="I32" t="n">
-        <v>45.35660748935871</v>
+        <v>45.35660748935889</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>68.00791905780738</v>
+        <v>68.00791905780757</v>
       </c>
       <c r="T32" t="n">
-        <v>114.5568247698258</v>
+        <v>114.556824769826</v>
       </c>
       <c r="U32" t="n">
-        <v>147.0633138881325</v>
+        <v>147.0633138881327</v>
       </c>
       <c r="V32" t="n">
-        <v>228.3788554437968</v>
+        <v>228.378855443797</v>
       </c>
       <c r="W32" t="n">
-        <v>253.6789549217537</v>
+        <v>253.6789549217539</v>
       </c>
       <c r="X32" t="n">
-        <v>272.9792131545003</v>
+        <v>272.9792131545005</v>
       </c>
       <c r="Y32" t="n">
-        <v>284.375810950699</v>
+        <v>284.3758109506992</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>76.48918907831472</v>
+        <v>76.48918907831491</v>
       </c>
       <c r="C34" t="n">
-        <v>62.68918392371521</v>
+        <v>62.68918392371539</v>
       </c>
       <c r="D34" t="n">
-        <v>46.3105483212936</v>
+        <v>46.31054832129378</v>
       </c>
       <c r="E34" t="n">
-        <v>45.25829817707304</v>
+        <v>45.25829817707323</v>
       </c>
       <c r="F34" t="n">
-        <v>45.72522250525935</v>
+        <v>45.72522250525954</v>
       </c>
       <c r="G34" t="n">
-        <v>61.76138301229105</v>
+        <v>61.76138301229123</v>
       </c>
       <c r="H34" t="n">
-        <v>50.42743570746865</v>
+        <v>50.42743570746883</v>
       </c>
       <c r="I34" t="n">
-        <v>30.35677307996518</v>
+        <v>30.35677307996536</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>32.07021227065668</v>
+        <v>32.07021227065687</v>
       </c>
       <c r="S34" t="n">
-        <v>102.1848988252731</v>
+        <v>102.1848988252733</v>
       </c>
       <c r="T34" t="n">
-        <v>124.5973119084513</v>
+        <v>124.5973119084515</v>
       </c>
       <c r="U34" t="n">
-        <v>179.0746998030617</v>
+        <v>179.0746998030619</v>
       </c>
       <c r="V34" t="n">
-        <v>152.8973254779403</v>
+        <v>152.8973254779405</v>
       </c>
       <c r="W34" t="n">
-        <v>178.0642115485536</v>
+        <v>178.0642115485538</v>
       </c>
       <c r="X34" t="n">
-        <v>123.7093135443567</v>
+        <v>123.7093135443569</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5841813004244</v>
+        <v>114.5841813004246</v>
       </c>
     </row>
     <row r="35">
@@ -3266,22 +3266,22 @@
         <v>236.9374148203185</v>
       </c>
       <c r="C35" t="n">
-        <v>224.9487317780003</v>
+        <v>224.9487317780002</v>
       </c>
       <c r="D35" t="n">
-        <v>215.9300358225283</v>
+        <v>215.9300358225282</v>
       </c>
       <c r="E35" t="n">
-        <v>237.6721733924338</v>
+        <v>237.6721733924337</v>
       </c>
       <c r="F35" t="n">
-        <v>256.843989480411</v>
+        <v>256.8439894804109</v>
       </c>
       <c r="G35" t="n">
-        <v>258.2454684304316</v>
+        <v>258.2454684304315</v>
       </c>
       <c r="H35" t="n">
-        <v>170.8811887985637</v>
+        <v>170.8811887985636</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,22 +3314,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>20.07285567450828</v>
+        <v>20.07285567450819</v>
       </c>
       <c r="T35" t="n">
-        <v>66.62176138652669</v>
+        <v>66.6217613865266</v>
       </c>
       <c r="U35" t="n">
-        <v>99.12825050483335</v>
+        <v>99.12825050483326</v>
       </c>
       <c r="V35" t="n">
-        <v>180.4437920604977</v>
+        <v>180.4437920604976</v>
       </c>
       <c r="W35" t="n">
-        <v>205.7438915384546</v>
+        <v>205.7438915384545</v>
       </c>
       <c r="X35" t="n">
-        <v>225.0441497712012</v>
+        <v>225.0441497712011</v>
       </c>
       <c r="Y35" t="n">
         <v>236.4407475673999</v>
@@ -3421,13 +3421,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>28.55412569501561</v>
+        <v>28.55412569501553</v>
       </c>
       <c r="C37" t="n">
-        <v>14.7541205404161</v>
+        <v>14.75412054041601</v>
       </c>
       <c r="D37" t="n">
-        <v>23.21481528917237</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3436,10 +3436,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>13.82631962899194</v>
+        <v>13.82631962899185</v>
       </c>
       <c r="H37" t="n">
-        <v>2.492372324169535</v>
+        <v>2.49237232416945</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>54.24983544197397</v>
+        <v>54.24983544197389</v>
       </c>
       <c r="T37" t="n">
-        <v>76.66224852515221</v>
+        <v>76.66224852515212</v>
       </c>
       <c r="U37" t="n">
-        <v>131.1396364197626</v>
+        <v>131.1396364197625</v>
       </c>
       <c r="V37" t="n">
-        <v>104.9622620946412</v>
+        <v>104.9622620946411</v>
       </c>
       <c r="W37" t="n">
-        <v>130.1291481652545</v>
+        <v>130.1291481652544</v>
       </c>
       <c r="X37" t="n">
-        <v>75.77425016105758</v>
+        <v>98.98906545023084</v>
       </c>
       <c r="Y37" t="n">
-        <v>66.64911791712527</v>
+        <v>66.64911791712518</v>
       </c>
     </row>
     <row r="38">
@@ -3709,10 +3709,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>77.46465073114643</v>
+        <v>54.24983544197397</v>
       </c>
       <c r="T40" t="n">
-        <v>76.66224852515221</v>
+        <v>99.8770638143247</v>
       </c>
       <c r="U40" t="n">
         <v>131.1396364197626</v>
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>257.8872195726045</v>
+        <v>257.8872195726046</v>
       </c>
       <c r="C41" t="n">
-        <v>245.8985365302863</v>
+        <v>185.4549239759252</v>
       </c>
       <c r="D41" t="n">
-        <v>236.8798405748142</v>
+        <v>236.8798405748143</v>
       </c>
       <c r="E41" t="n">
         <v>258.6219781447198</v>
       </c>
       <c r="F41" t="n">
-        <v>277.7937942326969</v>
+        <v>277.793794232697</v>
       </c>
       <c r="G41" t="n">
         <v>279.1952731827176</v>
       </c>
       <c r="H41" t="n">
-        <v>81.55597497328439</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>18.37134885834558</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>41.02266042679426</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>87.57156613881267</v>
+        <v>87.57156613881276</v>
       </c>
       <c r="U41" t="n">
-        <v>120.0780552571193</v>
+        <v>120.0780552571194</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>201.3935968127837</v>
       </c>
       <c r="W41" t="n">
-        <v>226.6936962907405</v>
+        <v>226.6936962907406</v>
       </c>
       <c r="X41" t="n">
         <v>245.9939545234872</v>
       </c>
       <c r="Y41" t="n">
-        <v>257.3905523196859</v>
+        <v>257.390552319686</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>49.5039304473016</v>
+        <v>49.50393044730168</v>
       </c>
       <c r="C43" t="n">
-        <v>35.70392529270208</v>
+        <v>35.70392529270217</v>
       </c>
       <c r="D43" t="n">
-        <v>19.32528969028047</v>
+        <v>19.32528969028056</v>
       </c>
       <c r="E43" t="n">
-        <v>18.27303954605992</v>
+        <v>18.27303954606001</v>
       </c>
       <c r="F43" t="n">
-        <v>18.73996387424623</v>
+        <v>18.73996387424631</v>
       </c>
       <c r="G43" t="n">
-        <v>34.77612438127792</v>
+        <v>34.77612438127801</v>
       </c>
       <c r="H43" t="n">
-        <v>23.44217707645552</v>
+        <v>23.4421770764556</v>
       </c>
       <c r="I43" t="n">
-        <v>3.371514448952057</v>
+        <v>3.371514448952142</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>5.084953639643562</v>
+        <v>5.084953639643647</v>
       </c>
       <c r="S43" t="n">
-        <v>75.19964019425996</v>
+        <v>75.19964019426004</v>
       </c>
       <c r="T43" t="n">
-        <v>97.61205327743819</v>
+        <v>97.61205327743828</v>
       </c>
       <c r="U43" t="n">
-        <v>152.0894411720485</v>
+        <v>152.0894411720486</v>
       </c>
       <c r="V43" t="n">
-        <v>125.9120668469272</v>
+        <v>125.9120668469273</v>
       </c>
       <c r="W43" t="n">
-        <v>151.0789529175404</v>
+        <v>151.0789529175405</v>
       </c>
       <c r="X43" t="n">
-        <v>96.72405491334356</v>
+        <v>96.72405491334365</v>
       </c>
       <c r="Y43" t="n">
-        <v>87.59892266941125</v>
+        <v>87.59892266941134</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>257.8872195726045</v>
+        <v>257.8872195726046</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>245.8985365302864</v>
       </c>
       <c r="D44" t="n">
-        <v>236.8798405748142</v>
+        <v>135.4135675936584</v>
       </c>
       <c r="E44" t="n">
-        <v>258.6219781447198</v>
+        <v>258.6219781447199</v>
       </c>
       <c r="F44" t="n">
-        <v>277.7937942326969</v>
+        <v>277.7937942326971</v>
       </c>
       <c r="G44" t="n">
-        <v>279.1952731827176</v>
+        <v>279.1952731827178</v>
       </c>
       <c r="H44" t="n">
-        <v>191.8309935508496</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>18.37134885834558</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>41.02266042679424</v>
+        <v>41.0226604267944</v>
       </c>
       <c r="T44" t="n">
-        <v>87.57156613881267</v>
+        <v>87.57156613881281</v>
       </c>
       <c r="U44" t="n">
-        <v>54.3079763970567</v>
+        <v>120.0780552571195</v>
       </c>
       <c r="V44" t="n">
-        <v>201.3935968127836</v>
+        <v>201.3935968127838</v>
       </c>
       <c r="W44" t="n">
-        <v>226.6936962907405</v>
+        <v>226.6936962907407</v>
       </c>
       <c r="X44" t="n">
-        <v>245.9939545234872</v>
+        <v>245.9939545234873</v>
       </c>
       <c r="Y44" t="n">
-        <v>257.3905523196859</v>
+        <v>257.3905523196861</v>
       </c>
     </row>
     <row r="45">
@@ -4074,7 +4074,7 @@
         <v>96.19049711964605</v>
       </c>
       <c r="I45" t="n">
-        <v>57.90206971882208</v>
+        <v>57.90206971882209</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>41.52047263646531</v>
+        <v>41.52047263646533</v>
       </c>
       <c r="S45" t="n">
         <v>145.9864318313356</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>49.5039304473016</v>
+        <v>49.50393044730174</v>
       </c>
       <c r="C46" t="n">
-        <v>35.70392529270208</v>
+        <v>35.70392529270222</v>
       </c>
       <c r="D46" t="n">
-        <v>19.32528969028047</v>
+        <v>19.32528969028061</v>
       </c>
       <c r="E46" t="n">
-        <v>18.27303954605992</v>
+        <v>18.27303954606006</v>
       </c>
       <c r="F46" t="n">
-        <v>18.73996387424623</v>
+        <v>18.73996387424637</v>
       </c>
       <c r="G46" t="n">
-        <v>34.77612438127792</v>
+        <v>34.77612438127807</v>
       </c>
       <c r="H46" t="n">
-        <v>23.44217707645552</v>
+        <v>23.44217707645566</v>
       </c>
       <c r="I46" t="n">
-        <v>3.371514448952053</v>
+        <v>3.371514448952199</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>5.084953639643555</v>
+        <v>5.084953639643704</v>
       </c>
       <c r="S46" t="n">
-        <v>75.19964019425996</v>
+        <v>75.1996401942601</v>
       </c>
       <c r="T46" t="n">
-        <v>97.61205327743819</v>
+        <v>97.61205327743833</v>
       </c>
       <c r="U46" t="n">
-        <v>152.0894411720485</v>
+        <v>152.0894411720487</v>
       </c>
       <c r="V46" t="n">
-        <v>125.9120668469272</v>
+        <v>125.9120668469273</v>
       </c>
       <c r="W46" t="n">
-        <v>151.0789529175404</v>
+        <v>151.0789529175406</v>
       </c>
       <c r="X46" t="n">
-        <v>96.72405491334356</v>
+        <v>96.72405491334371</v>
       </c>
       <c r="Y46" t="n">
-        <v>87.59892266941125</v>
+        <v>87.59892266941139</v>
       </c>
     </row>
   </sheetData>
@@ -4805,37 +4805,37 @@
         <v>10.71035629773655</v>
       </c>
       <c r="K8" t="n">
-        <v>10.71035629773655</v>
+        <v>20.21955114152135</v>
       </c>
       <c r="L8" t="n">
-        <v>10.71035629773655</v>
+        <v>20.21955114152135</v>
       </c>
       <c r="M8" t="n">
-        <v>10.71035629773655</v>
+        <v>30.12913313662339</v>
       </c>
       <c r="N8" t="n">
-        <v>10.71035629773655</v>
+        <v>30.12913313662339</v>
       </c>
       <c r="O8" t="n">
-        <v>20.21955114152135</v>
+        <v>30.12913313662339</v>
       </c>
       <c r="P8" t="n">
-        <v>30.12913313662339</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="Q8" t="n">
         <v>40.03871513172544</v>
       </c>
       <c r="R8" t="n">
+        <v>40.03871513172544</v>
+      </c>
+      <c r="S8" t="n">
+        <v>40.03871513172544</v>
+      </c>
+      <c r="T8" t="n">
+        <v>40.03871513172544</v>
+      </c>
+      <c r="U8" t="n">
         <v>31.13313425091136</v>
-      </c>
-      <c r="S8" t="n">
-        <v>21.02234760148574</v>
-      </c>
-      <c r="T8" t="n">
-        <v>21.02234760148574</v>
-      </c>
-      <c r="U8" t="n">
-        <v>21.02234760148574</v>
       </c>
       <c r="V8" t="n">
         <v>21.02234760148574</v>
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>19.81714183287421</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="C9" t="n">
-        <v>9.70635518344859</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="D9" t="n">
-        <v>9.70635518344859</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="E9" t="n">
-        <v>9.70635518344859</v>
+        <v>10.91156095206012</v>
       </c>
       <c r="F9" t="n">
-        <v>9.70635518344859</v>
+        <v>10.91156095206012</v>
       </c>
       <c r="G9" t="n">
-        <v>9.70635518344859</v>
+        <v>10.91156095206012</v>
       </c>
       <c r="H9" t="n">
-        <v>9.70635518344859</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="I9" t="n">
         <v>0.8007743026345088</v>
@@ -4887,46 +4887,46 @@
         <v>0.8007743026345088</v>
       </c>
       <c r="L9" t="n">
-        <v>10.71035629773655</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="M9" t="n">
-        <v>10.71035629773655</v>
+        <v>10.3099691464193</v>
       </c>
       <c r="N9" t="n">
-        <v>10.71035629773655</v>
+        <v>10.3099691464193</v>
       </c>
       <c r="O9" t="n">
-        <v>20.6199382928386</v>
+        <v>20.21955114152135</v>
       </c>
       <c r="P9" t="n">
-        <v>30.52952028794065</v>
+        <v>30.12913313662339</v>
       </c>
       <c r="Q9" t="n">
         <v>40.03871513172544</v>
       </c>
       <c r="R9" t="n">
-        <v>29.92792848229982</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="S9" t="n">
-        <v>19.81714183287421</v>
+        <v>31.13313425091136</v>
       </c>
       <c r="T9" t="n">
-        <v>19.81714183287421</v>
+        <v>31.13313425091136</v>
       </c>
       <c r="U9" t="n">
-        <v>19.81714183287421</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="V9" t="n">
-        <v>19.81714183287421</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="W9" t="n">
-        <v>19.81714183287421</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="X9" t="n">
-        <v>19.81714183287421</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="Y9" t="n">
-        <v>19.81714183287421</v>
+        <v>21.02234760148574</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>21.02234760148574</v>
+        <v>9.70635518344859</v>
       </c>
       <c r="C10" t="n">
-        <v>21.02234760148574</v>
+        <v>9.70635518344859</v>
       </c>
       <c r="D10" t="n">
-        <v>21.02234760148574</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="E10" t="n">
-        <v>21.02234760148574</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="F10" t="n">
-        <v>10.91156095206012</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="G10" t="n">
-        <v>10.91156095206012</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="H10" t="n">
-        <v>10.91156095206012</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="I10" t="n">
-        <v>10.91156095206012</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="J10" t="n">
         <v>0.8007743026345088</v>
       </c>
       <c r="K10" t="n">
-        <v>0.8007743026345088</v>
+        <v>10.71035629773655</v>
       </c>
       <c r="L10" t="n">
-        <v>0.8007743026345088</v>
+        <v>10.71035629773655</v>
       </c>
       <c r="M10" t="n">
-        <v>10.3099691464193</v>
+        <v>20.6199382928386</v>
       </c>
       <c r="N10" t="n">
-        <v>20.21955114152135</v>
+        <v>30.52952028794065</v>
       </c>
       <c r="O10" t="n">
-        <v>30.12913313662339</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="P10" t="n">
         <v>40.03871513172544</v>
       </c>
       <c r="Q10" t="n">
-        <v>31.13313425091136</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="R10" t="n">
-        <v>31.13313425091136</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="S10" t="n">
-        <v>31.13313425091136</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="T10" t="n">
-        <v>31.13313425091136</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="U10" t="n">
-        <v>31.13313425091136</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="V10" t="n">
-        <v>31.13313425091136</v>
+        <v>19.81714183287421</v>
       </c>
       <c r="W10" t="n">
-        <v>31.13313425091136</v>
+        <v>19.81714183287421</v>
       </c>
       <c r="X10" t="n">
-        <v>21.02234760148574</v>
+        <v>19.81714183287421</v>
       </c>
       <c r="Y10" t="n">
-        <v>21.02234760148574</v>
+        <v>9.70635518344859</v>
       </c>
     </row>
     <row r="11">
@@ -5015,49 +5015,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1505.329229860674</v>
+        <v>1242.366025916038</v>
       </c>
       <c r="C11" t="n">
-        <v>1505.329229860674</v>
+        <v>964.1099660614732</v>
       </c>
       <c r="D11" t="n">
-        <v>1236.182963900525</v>
+        <v>964.1099660614732</v>
       </c>
       <c r="E11" t="n">
-        <v>945.0749428192598</v>
+        <v>673.0019449802076</v>
       </c>
       <c r="F11" t="n">
-        <v>634.6014509420577</v>
+        <v>362.5284531030054</v>
       </c>
       <c r="G11" t="n">
-        <v>322.7123237618042</v>
+        <v>50.63932592275206</v>
       </c>
       <c r="H11" t="n">
-        <v>99.06994368444784</v>
+        <v>50.63932592275206</v>
       </c>
       <c r="I11" t="n">
-        <v>50.63932592275207</v>
+        <v>50.63932592275206</v>
       </c>
       <c r="J11" t="n">
-        <v>138.3634659549377</v>
+        <v>167.3214431483646</v>
       </c>
       <c r="K11" t="n">
-        <v>445.4729308346147</v>
+        <v>474.4309080280417</v>
       </c>
       <c r="L11" t="n">
-        <v>876.4393853935157</v>
+        <v>725.154180250168</v>
       </c>
       <c r="M11" t="n">
-        <v>1362.122262796983</v>
+        <v>1210.837057653636</v>
       </c>
       <c r="N11" t="n">
-        <v>1834.393168528417</v>
+        <v>1683.107963385069</v>
       </c>
       <c r="O11" t="n">
-        <v>2228.102203462698</v>
+        <v>2076.81699831935</v>
       </c>
       <c r="P11" t="n">
-        <v>2531.966296137603</v>
+        <v>2380.681090994256</v>
       </c>
       <c r="Q11" t="n">
         <v>2531.966296137603</v>
@@ -5066,25 +5066,25 @@
         <v>2531.966296137603</v>
       </c>
       <c r="S11" t="n">
-        <v>2460.655565680505</v>
+        <v>2460.655565680504</v>
       </c>
       <c r="T11" t="n">
         <v>2342.3257385446</v>
       </c>
       <c r="U11" t="n">
-        <v>2191.161073915456</v>
+        <v>2191.161073915457</v>
       </c>
       <c r="V11" t="n">
-        <v>2085.5592271776</v>
+        <v>2191.161073915457</v>
       </c>
       <c r="W11" t="n">
-        <v>2085.5592271776</v>
+        <v>1932.303842585685</v>
       </c>
       <c r="X11" t="n">
-        <v>2085.5592271776</v>
+        <v>1822.596023232965</v>
       </c>
       <c r="Y11" t="n">
-        <v>1795.695070566066</v>
+        <v>1532.73186662143</v>
       </c>
     </row>
     <row r="12">
@@ -5097,46 +5097,46 @@
         <v>916.993594840569</v>
       </c>
       <c r="C12" t="n">
-        <v>755.2899220815237</v>
+        <v>755.2899220815239</v>
       </c>
       <c r="D12" t="n">
-        <v>616.4512850717358</v>
+        <v>616.451285071736</v>
       </c>
       <c r="E12" t="n">
-        <v>469.4232751286071</v>
+        <v>469.4232751286072</v>
       </c>
       <c r="F12" t="n">
-        <v>334.7294770784815</v>
+        <v>334.7294770784816</v>
       </c>
       <c r="G12" t="n">
-        <v>206.2883833353462</v>
+        <v>206.2883833353461</v>
       </c>
       <c r="H12" t="n">
         <v>109.1262650326734</v>
       </c>
       <c r="I12" t="n">
-        <v>50.63932592275207</v>
+        <v>50.63932592275206</v>
       </c>
       <c r="J12" t="n">
         <v>137.5067023934301</v>
       </c>
       <c r="K12" t="n">
-        <v>137.5067023934301</v>
+        <v>412.4835038098271</v>
       </c>
       <c r="L12" t="n">
-        <v>382.1973385969688</v>
+        <v>839.4672239188728</v>
       </c>
       <c r="M12" t="n">
-        <v>938.6037153416563</v>
+        <v>1395.87360066356</v>
       </c>
       <c r="N12" t="n">
-        <v>1523.131416247197</v>
+        <v>1879.017169097102</v>
       </c>
       <c r="O12" t="n">
-        <v>1982.351834253086</v>
+        <v>2338.237587102991</v>
       </c>
       <c r="P12" t="n">
-        <v>2338.23758710299</v>
+        <v>2338.237587102991</v>
       </c>
       <c r="Q12" t="n">
         <v>2531.966296137603</v>
@@ -5145,19 +5145,19 @@
         <v>2490.026424787638</v>
       </c>
       <c r="S12" t="n">
-        <v>2342.565382533763</v>
+        <v>2342.565382533764</v>
       </c>
       <c r="T12" t="n">
-        <v>2155.038727509661</v>
+        <v>2155.038727509662</v>
       </c>
       <c r="U12" t="n">
-        <v>1936.562843412812</v>
+        <v>1936.562843412813</v>
       </c>
       <c r="V12" t="n">
-        <v>1708.167220861146</v>
+        <v>1708.167220861147</v>
       </c>
       <c r="W12" t="n">
-        <v>1466.851352094456</v>
+        <v>1466.851352094457</v>
       </c>
       <c r="X12" t="n">
         <v>1268.934363972251</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>414.9390970238695</v>
+        <v>414.9390970238696</v>
       </c>
       <c r="C13" t="n">
-        <v>349.0008262981772</v>
+        <v>349.0008262981775</v>
       </c>
       <c r="D13" t="n">
-        <v>299.6066319385674</v>
+        <v>299.6066319385677</v>
       </c>
       <c r="E13" t="n">
-        <v>251.2753165125137</v>
+        <v>251.275316512514</v>
       </c>
       <c r="F13" t="n">
-        <v>202.4723603509183</v>
+        <v>202.4723603509186</v>
       </c>
       <c r="G13" t="n">
-        <v>137.4712622630283</v>
+        <v>137.4712622630286</v>
       </c>
       <c r="H13" t="n">
-        <v>83.91859579617142</v>
+        <v>83.91859579617147</v>
       </c>
       <c r="I13" t="n">
-        <v>50.63932592275207</v>
+        <v>50.63932592275206</v>
       </c>
       <c r="J13" t="n">
         <v>110.0880241976686</v>
@@ -5203,10 +5203,10 @@
         <v>272.7438500392108</v>
       </c>
       <c r="L13" t="n">
-        <v>510.075516402062</v>
+        <v>510.0755164020621</v>
       </c>
       <c r="M13" t="n">
-        <v>766.702185748999</v>
+        <v>766.7021857489991</v>
       </c>
       <c r="N13" t="n">
         <v>1022.877469947108</v>
@@ -5227,22 +5227,22 @@
         <v>1392.256431694721</v>
       </c>
       <c r="T13" t="n">
-        <v>1263.784698358184</v>
+        <v>1263.784698358185</v>
       </c>
       <c r="U13" t="n">
         <v>1080.285300481637</v>
       </c>
       <c r="V13" t="n">
-        <v>923.2276948526874</v>
+        <v>923.2276948526875</v>
       </c>
       <c r="W13" t="n">
-        <v>740.748992182714</v>
+        <v>740.7489921827141</v>
       </c>
       <c r="X13" t="n">
-        <v>613.1742268907173</v>
+        <v>613.1742268907174</v>
       </c>
       <c r="Y13" t="n">
-        <v>494.8167668956218</v>
+        <v>494.816766895622</v>
       </c>
     </row>
     <row r="14">
@@ -5252,49 +5252,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1281.448649552127</v>
+        <v>840.4198283114478</v>
       </c>
       <c r="C14" t="n">
-        <v>1003.192589697562</v>
+        <v>562.163768456883</v>
       </c>
       <c r="D14" t="n">
-        <v>734.0463237374129</v>
+        <v>562.163768456883</v>
       </c>
       <c r="E14" t="n">
-        <v>734.0463237374129</v>
+        <v>562.163768456883</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5728318602106</v>
+        <v>362.5284531030053</v>
       </c>
       <c r="G14" t="n">
-        <v>111.6837046799573</v>
+        <v>50.63932592275206</v>
       </c>
       <c r="H14" t="n">
-        <v>99.06994368444782</v>
+        <v>50.63932592275206</v>
       </c>
       <c r="I14" t="n">
-        <v>50.63932592275207</v>
+        <v>50.63932592275206</v>
       </c>
       <c r="J14" t="n">
-        <v>50.63932592275207</v>
+        <v>167.3214431483646</v>
       </c>
       <c r="K14" t="n">
-        <v>357.7487908024291</v>
+        <v>294.1877256912673</v>
       </c>
       <c r="L14" t="n">
-        <v>788.7152453613301</v>
+        <v>725.1541802501683</v>
       </c>
       <c r="M14" t="n">
-        <v>1274.398122764798</v>
+        <v>1210.837057653636</v>
       </c>
       <c r="N14" t="n">
-        <v>1746.669028496231</v>
+        <v>1683.107963385069</v>
       </c>
       <c r="O14" t="n">
-        <v>2140.378063430512</v>
+        <v>2076.81699831935</v>
       </c>
       <c r="P14" t="n">
-        <v>2444.242156105418</v>
+        <v>2380.681090994256</v>
       </c>
       <c r="Q14" t="n">
         <v>2531.966296137603</v>
@@ -5309,19 +5309,19 @@
         <v>2342.3257385446</v>
       </c>
       <c r="U14" t="n">
-        <v>2342.3257385446</v>
+        <v>2191.161073915456</v>
       </c>
       <c r="V14" t="n">
-        <v>2109.024163253169</v>
+        <v>1957.859498624025</v>
       </c>
       <c r="W14" t="n">
-        <v>1850.166931923398</v>
+        <v>1699.002267294253</v>
       </c>
       <c r="X14" t="n">
-        <v>1571.814490257519</v>
+        <v>1420.649825628374</v>
       </c>
       <c r="Y14" t="n">
-        <v>1571.814490257519</v>
+        <v>1130.785669016839</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5352,28 @@
         <v>109.1262650326734</v>
       </c>
       <c r="I15" t="n">
-        <v>50.63932592275207</v>
+        <v>50.63932592275206</v>
       </c>
       <c r="J15" t="n">
-        <v>50.63932592275207</v>
+        <v>137.5067023934301</v>
       </c>
       <c r="K15" t="n">
-        <v>325.616127339149</v>
+        <v>412.483503809827</v>
       </c>
       <c r="L15" t="n">
-        <v>752.5998474481949</v>
+        <v>839.4672239188728</v>
       </c>
       <c r="M15" t="n">
-        <v>1309.006224192882</v>
+        <v>938.6037153416563</v>
       </c>
       <c r="N15" t="n">
-        <v>1893.533925098423</v>
+        <v>1523.131416247197</v>
       </c>
       <c r="O15" t="n">
-        <v>2352.754343104311</v>
+        <v>1982.351834253086</v>
       </c>
       <c r="P15" t="n">
-        <v>2531.966296137603</v>
+        <v>2338.23758710299</v>
       </c>
       <c r="Q15" t="n">
         <v>2531.966296137603</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>414.9390970238702</v>
+        <v>414.9390970238695</v>
       </c>
       <c r="C16" t="n">
-        <v>349.000826298178</v>
+        <v>349.0008262981773</v>
       </c>
       <c r="D16" t="n">
-        <v>299.6066319385682</v>
+        <v>299.6066319385676</v>
       </c>
       <c r="E16" t="n">
-        <v>251.2753165125146</v>
+        <v>251.275316512514</v>
       </c>
       <c r="F16" t="n">
-        <v>202.4723603509191</v>
+        <v>202.4723603509186</v>
       </c>
       <c r="G16" t="n">
-        <v>137.4712622630291</v>
+        <v>137.4712622630286</v>
       </c>
       <c r="H16" t="n">
-        <v>83.91859579617153</v>
+        <v>83.91859579617139</v>
       </c>
       <c r="I16" t="n">
-        <v>50.63932592275207</v>
+        <v>50.63932592275206</v>
       </c>
       <c r="J16" t="n">
-        <v>110.0880241976686</v>
+        <v>110.0880241976687</v>
       </c>
       <c r="K16" t="n">
-        <v>272.7438500392108</v>
+        <v>272.7438500392109</v>
       </c>
       <c r="L16" t="n">
-        <v>510.075516402062</v>
+        <v>510.0755164020622</v>
       </c>
       <c r="M16" t="n">
-        <v>766.7021857489988</v>
+        <v>766.7021857489992</v>
       </c>
       <c r="N16" t="n">
         <v>1022.877469947108</v>
@@ -5452,7 +5452,7 @@
         <v>1256.33531818274</v>
       </c>
       <c r="P16" t="n">
-        <v>1449.480405090491</v>
+        <v>1449.480405090492</v>
       </c>
       <c r="Q16" t="n">
         <v>1533.099380467822</v>
@@ -5461,25 +5461,25 @@
         <v>1498.089363937139</v>
       </c>
       <c r="S16" t="n">
-        <v>1392.256431694722</v>
+        <v>1392.256431694721</v>
       </c>
       <c r="T16" t="n">
         <v>1263.784698358185</v>
       </c>
       <c r="U16" t="n">
-        <v>1080.285300481638</v>
+        <v>1080.285300481637</v>
       </c>
       <c r="V16" t="n">
-        <v>923.227694852688</v>
+        <v>923.2276948526876</v>
       </c>
       <c r="W16" t="n">
-        <v>740.7489921827147</v>
+        <v>740.7489921827142</v>
       </c>
       <c r="X16" t="n">
-        <v>613.1742268907179</v>
+        <v>613.1742268907171</v>
       </c>
       <c r="Y16" t="n">
-        <v>494.8167668956225</v>
+        <v>494.8167668956218</v>
       </c>
     </row>
     <row r="17">
@@ -5495,40 +5495,40 @@
         <v>1137.350453655373</v>
       </c>
       <c r="D17" t="n">
-        <v>932.113819383945</v>
+        <v>932.1138193839452</v>
       </c>
       <c r="E17" t="n">
-        <v>704.9154299914005</v>
+        <v>704.9154299914006</v>
       </c>
       <c r="F17" t="n">
-        <v>458.3515698029195</v>
+        <v>458.3515698029196</v>
       </c>
       <c r="G17" t="n">
         <v>210.3720743113874</v>
       </c>
       <c r="H17" t="n">
-        <v>50.63932592275207</v>
+        <v>50.63932592275206</v>
       </c>
       <c r="I17" t="n">
-        <v>50.63932592275207</v>
+        <v>50.63932592275206</v>
       </c>
       <c r="J17" t="n">
-        <v>50.63932592275207</v>
+        <v>167.3214431483646</v>
       </c>
       <c r="K17" t="n">
-        <v>357.7487908024291</v>
+        <v>294.1877256912673</v>
       </c>
       <c r="L17" t="n">
-        <v>788.7152453613301</v>
+        <v>725.1541802501683</v>
       </c>
       <c r="M17" t="n">
-        <v>1274.398122764798</v>
+        <v>1210.837057653636</v>
       </c>
       <c r="N17" t="n">
-        <v>1746.669028496231</v>
+        <v>1683.107963385069</v>
       </c>
       <c r="O17" t="n">
-        <v>2140.378063430512</v>
+        <v>2076.81699831935</v>
       </c>
       <c r="P17" t="n">
         <v>2380.681090994256</v>
@@ -5552,7 +5552,7 @@
         <v>2213.498025378909</v>
       </c>
       <c r="W17" t="n">
-        <v>2018.550425737858</v>
+        <v>2018.550425737859</v>
       </c>
       <c r="X17" t="n">
         <v>1804.107615760701</v>
@@ -5589,22 +5589,22 @@
         <v>109.1262650326734</v>
       </c>
       <c r="I18" t="n">
-        <v>50.63932592275207</v>
+        <v>50.63932592275206</v>
       </c>
       <c r="J18" t="n">
-        <v>50.63932592275207</v>
+        <v>137.5067023934301</v>
       </c>
       <c r="K18" t="n">
-        <v>325.616127339149</v>
+        <v>412.483503809827</v>
       </c>
       <c r="L18" t="n">
-        <v>752.5998474481949</v>
+        <v>839.4672239188728</v>
       </c>
       <c r="M18" t="n">
-        <v>1309.006224192882</v>
+        <v>1395.87360066356</v>
       </c>
       <c r="N18" t="n">
-        <v>1893.533925098423</v>
+        <v>1523.131416247197</v>
       </c>
       <c r="O18" t="n">
         <v>1982.351834253086</v>
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.75943135889211</v>
+        <v>53.75943135889204</v>
       </c>
       <c r="C19" t="n">
-        <v>51.730792321921</v>
+        <v>51.73079232192096</v>
       </c>
       <c r="D19" t="n">
-        <v>51.730792321921</v>
+        <v>51.73079232192096</v>
       </c>
       <c r="E19" t="n">
-        <v>51.730792321921</v>
+        <v>51.73079232192096</v>
       </c>
       <c r="F19" t="n">
-        <v>51.730792321921</v>
+        <v>51.73079232192096</v>
       </c>
       <c r="G19" t="n">
-        <v>50.63932592275207</v>
+        <v>50.63932592275206</v>
       </c>
       <c r="H19" t="n">
-        <v>50.63932592275207</v>
+        <v>50.63932592275206</v>
       </c>
       <c r="I19" t="n">
-        <v>50.63932592275207</v>
+        <v>50.63932592275206</v>
       </c>
       <c r="J19" t="n">
-        <v>50.63932592275207</v>
+        <v>50.63932592275206</v>
       </c>
       <c r="K19" t="n">
         <v>111.680639158038</v>
@@ -5680,7 +5680,7 @@
         <v>247.3977929146331</v>
       </c>
       <c r="M19" t="n">
-        <v>402.4099496553139</v>
+        <v>402.4099496553138</v>
       </c>
       <c r="N19" t="n">
         <v>556.9707212471667</v>
@@ -5692,31 +5692,31 @@
         <v>780.3446311780378</v>
       </c>
       <c r="Q19" t="n">
-        <v>780.3446311780378</v>
+        <v>761.9837116505146</v>
       </c>
       <c r="R19" t="n">
-        <v>780.3446311780378</v>
+        <v>625.6326447623921</v>
       </c>
       <c r="S19" t="n">
-        <v>738.4213306243416</v>
+        <v>583.7093442086959</v>
       </c>
       <c r="T19" t="n">
-        <v>673.859228976526</v>
+        <v>519.1472425608803</v>
       </c>
       <c r="U19" t="n">
-        <v>554.2694627886999</v>
+        <v>399.5574763730542</v>
       </c>
       <c r="V19" t="n">
-        <v>461.1214888484711</v>
+        <v>306.4095024328254</v>
       </c>
       <c r="W19" t="n">
-        <v>187.8404314515733</v>
+        <v>187.8404314515731</v>
       </c>
       <c r="X19" t="n">
-        <v>124.1752978482976</v>
+        <v>124.1752978482975</v>
       </c>
       <c r="Y19" t="n">
-        <v>69.72746954192334</v>
+        <v>69.72746954192323</v>
       </c>
     </row>
     <row r="20">
@@ -5732,22 +5732,22 @@
         <v>1137.350453655373</v>
       </c>
       <c r="D20" t="n">
-        <v>932.113819383945</v>
+        <v>932.1138193839449</v>
       </c>
       <c r="E20" t="n">
-        <v>704.9154299914005</v>
+        <v>704.9154299914004</v>
       </c>
       <c r="F20" t="n">
-        <v>458.3515698029195</v>
+        <v>458.3515698029194</v>
       </c>
       <c r="G20" t="n">
         <v>210.3720743113874</v>
       </c>
       <c r="H20" t="n">
-        <v>50.63932592275207</v>
+        <v>50.63932592275206</v>
       </c>
       <c r="I20" t="n">
-        <v>50.63932592275207</v>
+        <v>50.63932592275206</v>
       </c>
       <c r="J20" t="n">
         <v>167.3214431483646</v>
@@ -5756,16 +5756,16 @@
         <v>474.4309080280416</v>
       </c>
       <c r="L20" t="n">
-        <v>905.3973625869427</v>
+        <v>905.3973625869426</v>
       </c>
       <c r="M20" t="n">
-        <v>1391.080239990411</v>
+        <v>1391.08023999041</v>
       </c>
       <c r="N20" t="n">
-        <v>1683.10796338507</v>
+        <v>1863.351145721844</v>
       </c>
       <c r="O20" t="n">
-        <v>2076.816998319351</v>
+        <v>2076.81699831935</v>
       </c>
       <c r="P20" t="n">
         <v>2380.681090994256</v>
@@ -5783,10 +5783,10 @@
         <v>2470.145001922042</v>
       </c>
       <c r="U20" t="n">
-        <v>2382.88996898162</v>
+        <v>2382.889968981619</v>
       </c>
       <c r="V20" t="n">
-        <v>2213.49802537891</v>
+        <v>2213.498025378909</v>
       </c>
       <c r="W20" t="n">
         <v>2018.550425737859</v>
@@ -5795,7 +5795,7 @@
         <v>1804.107615760701</v>
       </c>
       <c r="Y20" t="n">
-        <v>1578.153090837888</v>
+        <v>1578.153090837887</v>
       </c>
     </row>
     <row r="21">
@@ -5808,25 +5808,25 @@
         <v>916.993594840569</v>
       </c>
       <c r="C21" t="n">
-        <v>755.2899220815239</v>
+        <v>755.2899220815237</v>
       </c>
       <c r="D21" t="n">
-        <v>616.451285071736</v>
+        <v>616.4512850717358</v>
       </c>
       <c r="E21" t="n">
-        <v>469.4232751286072</v>
+        <v>469.4232751286071</v>
       </c>
       <c r="F21" t="n">
-        <v>334.7294770784816</v>
+        <v>334.7294770784815</v>
       </c>
       <c r="G21" t="n">
-        <v>206.2883833353463</v>
+        <v>206.2883833353462</v>
       </c>
       <c r="H21" t="n">
         <v>109.1262650326734</v>
       </c>
       <c r="I21" t="n">
-        <v>50.63932592275207</v>
+        <v>50.63932592275206</v>
       </c>
       <c r="J21" t="n">
         <v>137.5067023934301</v>
@@ -5838,16 +5838,16 @@
         <v>839.4672239188728</v>
       </c>
       <c r="M21" t="n">
-        <v>1395.87360066356</v>
+        <v>938.6037153416563</v>
       </c>
       <c r="N21" t="n">
-        <v>1523.131416247198</v>
+        <v>1523.131416247197</v>
       </c>
       <c r="O21" t="n">
-        <v>1982.351834253087</v>
+        <v>1982.351834253086</v>
       </c>
       <c r="P21" t="n">
-        <v>2338.237587102991</v>
+        <v>2338.23758710299</v>
       </c>
       <c r="Q21" t="n">
         <v>2531.966296137603</v>
@@ -5856,19 +5856,19 @@
         <v>2490.026424787638</v>
       </c>
       <c r="S21" t="n">
-        <v>2342.565382533764</v>
+        <v>2342.565382533763</v>
       </c>
       <c r="T21" t="n">
-        <v>2155.038727509662</v>
+        <v>2155.038727509661</v>
       </c>
       <c r="U21" t="n">
-        <v>1936.562843412813</v>
+        <v>1936.562843412812</v>
       </c>
       <c r="V21" t="n">
-        <v>1708.167220861147</v>
+        <v>1708.167220861146</v>
       </c>
       <c r="W21" t="n">
-        <v>1466.851352094457</v>
+        <v>1466.851352094456</v>
       </c>
       <c r="X21" t="n">
         <v>1268.934363972251</v>
@@ -5884,31 +5884,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>53.75943135889211</v>
+        <v>190.1104982470146</v>
       </c>
       <c r="C22" t="n">
-        <v>51.730792321921</v>
+        <v>188.0818592100435</v>
       </c>
       <c r="D22" t="n">
-        <v>51.730792321921</v>
+        <v>51.73079232192096</v>
       </c>
       <c r="E22" t="n">
-        <v>51.730792321921</v>
+        <v>51.73079232192096</v>
       </c>
       <c r="F22" t="n">
-        <v>51.730792321921</v>
+        <v>51.73079232192096</v>
       </c>
       <c r="G22" t="n">
-        <v>50.63932592275207</v>
+        <v>50.63932592275206</v>
       </c>
       <c r="H22" t="n">
-        <v>50.63932592275207</v>
+        <v>50.63932592275206</v>
       </c>
       <c r="I22" t="n">
-        <v>50.63932592275207</v>
+        <v>50.63932592275206</v>
       </c>
       <c r="J22" t="n">
-        <v>50.63932592275207</v>
+        <v>50.63932592275206</v>
       </c>
       <c r="K22" t="n">
         <v>111.680639158038</v>
@@ -5917,7 +5917,7 @@
         <v>247.3977929146331</v>
       </c>
       <c r="M22" t="n">
-        <v>402.4099496553139</v>
+        <v>402.4099496553138</v>
       </c>
       <c r="N22" t="n">
         <v>556.9707212471667</v>
@@ -5950,10 +5950,10 @@
         <v>324.1914983396956</v>
       </c>
       <c r="X22" t="n">
-        <v>124.1752978482976</v>
+        <v>260.52636473642</v>
       </c>
       <c r="Y22" t="n">
-        <v>69.72746954192334</v>
+        <v>206.0785364300457</v>
       </c>
     </row>
     <row r="23">
@@ -5969,43 +5969,43 @@
         <v>1137.350453655373</v>
       </c>
       <c r="D23" t="n">
-        <v>932.1138193839452</v>
+        <v>932.1138193839454</v>
       </c>
       <c r="E23" t="n">
-        <v>704.9154299914006</v>
+        <v>704.9154299914009</v>
       </c>
       <c r="F23" t="n">
-        <v>458.3515698029196</v>
+        <v>458.3515698029198</v>
       </c>
       <c r="G23" t="n">
         <v>210.3720743113874</v>
       </c>
       <c r="H23" t="n">
-        <v>50.63932592275207</v>
+        <v>50.63932592275206</v>
       </c>
       <c r="I23" t="n">
-        <v>50.63932592275207</v>
+        <v>50.63932592275206</v>
       </c>
       <c r="J23" t="n">
-        <v>50.63932592275207</v>
+        <v>167.3214431483646</v>
       </c>
       <c r="K23" t="n">
-        <v>357.7487908024291</v>
+        <v>294.1877256912673</v>
       </c>
       <c r="L23" t="n">
-        <v>788.7152453613301</v>
+        <v>725.1541802501683</v>
       </c>
       <c r="M23" t="n">
-        <v>1274.398122764798</v>
+        <v>1210.837057653636</v>
       </c>
       <c r="N23" t="n">
-        <v>1746.669028496231</v>
+        <v>1683.107963385069</v>
       </c>
       <c r="O23" t="n">
-        <v>2140.378063430512</v>
+        <v>2076.81699831935</v>
       </c>
       <c r="P23" t="n">
-        <v>2444.242156105418</v>
+        <v>2380.681090994256</v>
       </c>
       <c r="Q23" t="n">
         <v>2531.966296137603</v>
@@ -6026,7 +6026,7 @@
         <v>2213.49802537891</v>
       </c>
       <c r="W23" t="n">
-        <v>2018.550425737859</v>
+        <v>2018.55042573786</v>
       </c>
       <c r="X23" t="n">
         <v>1804.107615760701</v>
@@ -6045,46 +6045,46 @@
         <v>916.993594840569</v>
       </c>
       <c r="C24" t="n">
-        <v>755.2899220815239</v>
+        <v>755.2899220815237</v>
       </c>
       <c r="D24" t="n">
-        <v>616.451285071736</v>
+        <v>616.4512850717358</v>
       </c>
       <c r="E24" t="n">
-        <v>469.4232751286072</v>
+        <v>469.4232751286071</v>
       </c>
       <c r="F24" t="n">
-        <v>334.7294770784816</v>
+        <v>334.7294770784815</v>
       </c>
       <c r="G24" t="n">
-        <v>206.2883833353463</v>
+        <v>206.2883833353462</v>
       </c>
       <c r="H24" t="n">
         <v>109.1262650326734</v>
       </c>
       <c r="I24" t="n">
-        <v>50.63932592275207</v>
+        <v>50.63932592275206</v>
       </c>
       <c r="J24" t="n">
-        <v>137.5067023934301</v>
+        <v>50.63932592275206</v>
       </c>
       <c r="K24" t="n">
-        <v>412.483503809827</v>
+        <v>325.616127339149</v>
       </c>
       <c r="L24" t="n">
-        <v>839.4672239188728</v>
+        <v>382.1973385969688</v>
       </c>
       <c r="M24" t="n">
-        <v>1395.87360066356</v>
+        <v>938.6037153416563</v>
       </c>
       <c r="N24" t="n">
-        <v>1523.131416247198</v>
+        <v>1523.131416247197</v>
       </c>
       <c r="O24" t="n">
-        <v>1982.351834253087</v>
+        <v>1982.351834253086</v>
       </c>
       <c r="P24" t="n">
-        <v>2338.237587102991</v>
+        <v>2338.23758710299</v>
       </c>
       <c r="Q24" t="n">
         <v>2531.966296137603</v>
@@ -6093,19 +6093,19 @@
         <v>2490.026424787638</v>
       </c>
       <c r="S24" t="n">
-        <v>2342.565382533764</v>
+        <v>2342.565382533763</v>
       </c>
       <c r="T24" t="n">
-        <v>2155.038727509662</v>
+        <v>2155.038727509661</v>
       </c>
       <c r="U24" t="n">
-        <v>1936.562843412813</v>
+        <v>1936.562843412812</v>
       </c>
       <c r="V24" t="n">
-        <v>1708.167220861147</v>
+        <v>1708.167220861146</v>
       </c>
       <c r="W24" t="n">
-        <v>1466.851352094457</v>
+        <v>1466.851352094456</v>
       </c>
       <c r="X24" t="n">
         <v>1268.934363972251</v>
@@ -6121,31 +6121,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>206.240086333115</v>
+        <v>53.75943135889204</v>
       </c>
       <c r="C25" t="n">
-        <v>204.2114472961439</v>
+        <v>51.73079232192096</v>
       </c>
       <c r="D25" t="n">
-        <v>204.2114472961439</v>
+        <v>51.73079232192096</v>
       </c>
       <c r="E25" t="n">
-        <v>204.2114472961439</v>
+        <v>51.73079232192096</v>
       </c>
       <c r="F25" t="n">
-        <v>51.730792321921</v>
+        <v>51.73079232192096</v>
       </c>
       <c r="G25" t="n">
-        <v>50.63932592275207</v>
+        <v>50.63932592275206</v>
       </c>
       <c r="H25" t="n">
-        <v>50.63932592275207</v>
+        <v>50.63932592275206</v>
       </c>
       <c r="I25" t="n">
-        <v>50.63932592275207</v>
+        <v>50.63932592275206</v>
       </c>
       <c r="J25" t="n">
-        <v>50.63932592275207</v>
+        <v>50.63932592275206</v>
       </c>
       <c r="K25" t="n">
         <v>111.680639158038</v>
@@ -6154,7 +6154,7 @@
         <v>247.3977929146331</v>
       </c>
       <c r="M25" t="n">
-        <v>402.4099496553139</v>
+        <v>402.4099496553138</v>
       </c>
       <c r="N25" t="n">
         <v>556.9707212471667</v>
@@ -6166,31 +6166,31 @@
         <v>780.3446311780378</v>
       </c>
       <c r="Q25" t="n">
-        <v>780.3446311780378</v>
+        <v>764.3203601057032</v>
       </c>
       <c r="R25" t="n">
-        <v>780.3446311780378</v>
+        <v>625.6326447623921</v>
       </c>
       <c r="S25" t="n">
-        <v>738.4213306243416</v>
+        <v>583.7093442086959</v>
       </c>
       <c r="T25" t="n">
-        <v>673.859228976526</v>
+        <v>519.1472425608803</v>
       </c>
       <c r="U25" t="n">
-        <v>554.2694627886999</v>
+        <v>399.5574763730542</v>
       </c>
       <c r="V25" t="n">
-        <v>461.1214888484711</v>
+        <v>306.4095024328254</v>
       </c>
       <c r="W25" t="n">
-        <v>342.5524178672188</v>
+        <v>187.8404314515731</v>
       </c>
       <c r="X25" t="n">
-        <v>278.8872842639432</v>
+        <v>124.1752978482975</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.4394559575689</v>
+        <v>69.72746954192323</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1802.833564437767</v>
+        <v>1802.833564437766</v>
       </c>
       <c r="C26" t="n">
-        <v>1524.577504583202</v>
+        <v>1524.577504583201</v>
       </c>
       <c r="D26" t="n">
-        <v>1255.431238623053</v>
+        <v>1255.431238623052</v>
       </c>
       <c r="E26" t="n">
-        <v>964.323217541787</v>
+        <v>964.3232175417863</v>
       </c>
       <c r="F26" t="n">
-        <v>653.8497256645849</v>
+        <v>653.8497256645842</v>
       </c>
       <c r="G26" t="n">
-        <v>341.9605984843315</v>
+        <v>341.9605984843309</v>
       </c>
       <c r="H26" t="n">
         <v>118.3182184069742</v>
       </c>
       <c r="I26" t="n">
-        <v>69.88760064527843</v>
+        <v>69.88760064527844</v>
       </c>
       <c r="J26" t="n">
-        <v>288.1842304771472</v>
+        <v>192.3395430980109</v>
       </c>
       <c r="K26" t="n">
-        <v>601.0635205839433</v>
+        <v>601.0635205839442</v>
       </c>
       <c r="L26" t="n">
         <v>1133.644487749101</v>
       </c>
       <c r="M26" t="n">
-        <v>1720.941877758825</v>
+        <v>1720.941877758826</v>
       </c>
       <c r="N26" t="n">
-        <v>2294.827296096514</v>
+        <v>2294.827296096515</v>
       </c>
       <c r="O26" t="n">
-        <v>2790.150843637051</v>
+        <v>2790.150843637052</v>
       </c>
       <c r="P26" t="n">
-        <v>3195.629448918213</v>
+        <v>3195.629448918214</v>
       </c>
       <c r="Q26" t="n">
-        <v>3448.529166667816</v>
+        <v>3448.529166667817</v>
       </c>
       <c r="R26" t="n">
-        <v>3494.380032263921</v>
+        <v>3494.380032263922</v>
       </c>
       <c r="S26" t="n">
-        <v>3423.069301806822</v>
+        <v>3423.069301806824</v>
       </c>
       <c r="T26" t="n">
-        <v>3304.739474670918</v>
+        <v>3304.739474670919</v>
       </c>
       <c r="U26" t="n">
-        <v>3153.574810041775</v>
+        <v>3153.574810041774</v>
       </c>
       <c r="V26" t="n">
-        <v>2920.273234750343</v>
+        <v>2920.273234750342</v>
       </c>
       <c r="W26" t="n">
-        <v>2661.416003420572</v>
+        <v>2661.416003420571</v>
       </c>
       <c r="X26" t="n">
-        <v>2383.063561754693</v>
+        <v>2383.063561754692</v>
       </c>
       <c r="Y26" t="n">
-        <v>2093.199405143158</v>
+        <v>2093.199405143157</v>
       </c>
     </row>
     <row r="27">
@@ -6291,16 +6291,16 @@
         <v>488.6715498511335</v>
       </c>
       <c r="F27" t="n">
-        <v>353.9777518010078</v>
+        <v>353.9777518010079</v>
       </c>
       <c r="G27" t="n">
-        <v>225.5366580578725</v>
+        <v>225.5366580578726</v>
       </c>
       <c r="H27" t="n">
         <v>128.3745397551997</v>
       </c>
       <c r="I27" t="n">
-        <v>69.88760064527843</v>
+        <v>69.88760064527844</v>
       </c>
       <c r="J27" t="n">
         <v>156.7549771159565</v>
@@ -6312,7 +6312,7 @@
         <v>858.7154986413993</v>
       </c>
       <c r="M27" t="n">
-        <v>1415.121875386087</v>
+        <v>957.8519900641827</v>
       </c>
       <c r="N27" t="n">
         <v>1542.379690969723</v>
@@ -6358,49 +6358,49 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>434.1873717463961</v>
+        <v>434.1873717463964</v>
       </c>
       <c r="C28" t="n">
-        <v>368.249101020704</v>
+        <v>368.2491010207042</v>
       </c>
       <c r="D28" t="n">
-        <v>318.8549066610942</v>
+        <v>318.8549066610944</v>
       </c>
       <c r="E28" t="n">
-        <v>270.5235912350406</v>
+        <v>270.5235912350408</v>
       </c>
       <c r="F28" t="n">
-        <v>221.7206350734452</v>
+        <v>221.7206350734454</v>
       </c>
       <c r="G28" t="n">
-        <v>156.7195369855552</v>
+        <v>156.7195369855554</v>
       </c>
       <c r="H28" t="n">
         <v>103.1668705186979</v>
       </c>
       <c r="I28" t="n">
-        <v>69.88760064527843</v>
+        <v>69.88760064527844</v>
       </c>
       <c r="J28" t="n">
-        <v>129.336298920195</v>
+        <v>129.3362989201951</v>
       </c>
       <c r="K28" t="n">
         <v>291.9921247617373</v>
       </c>
       <c r="L28" t="n">
-        <v>529.3237911245886</v>
+        <v>529.3237911245885</v>
       </c>
       <c r="M28" t="n">
-        <v>785.9504604715253</v>
+        <v>785.9504604715255</v>
       </c>
       <c r="N28" t="n">
-        <v>1042.125744669634</v>
+        <v>1042.125744669635</v>
       </c>
       <c r="O28" t="n">
         <v>1275.583592905267</v>
       </c>
       <c r="P28" t="n">
-        <v>1468.728679813018</v>
+        <v>1468.728679813019</v>
       </c>
       <c r="Q28" t="n">
         <v>1552.347655190349</v>
@@ -6421,13 +6421,13 @@
         <v>942.4759695752141</v>
       </c>
       <c r="W28" t="n">
-        <v>759.9972669052406</v>
+        <v>759.9972669052407</v>
       </c>
       <c r="X28" t="n">
-        <v>632.4225016132439</v>
+        <v>632.422501613244</v>
       </c>
       <c r="Y28" t="n">
-        <v>514.0650416181485</v>
+        <v>514.0650416181487</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1802.833564437764</v>
+        <v>1802.833564437767</v>
       </c>
       <c r="C29" t="n">
-        <v>1524.577504583199</v>
+        <v>1524.577504583202</v>
       </c>
       <c r="D29" t="n">
-        <v>1255.43123862305</v>
+        <v>1255.431238623053</v>
       </c>
       <c r="E29" t="n">
-        <v>964.3232175417852</v>
+        <v>964.3232175417869</v>
       </c>
       <c r="F29" t="n">
-        <v>653.8497256645833</v>
+        <v>653.8497256645846</v>
       </c>
       <c r="G29" t="n">
         <v>341.9605984843305</v>
       </c>
       <c r="H29" t="n">
-        <v>118.3182184069742</v>
+        <v>118.3182184069741</v>
       </c>
       <c r="I29" t="n">
-        <v>69.88760064527843</v>
+        <v>69.88760064527844</v>
       </c>
       <c r="J29" t="n">
-        <v>288.1842304771471</v>
+        <v>288.1842304771473</v>
       </c>
       <c r="K29" t="n">
-        <v>696.9082079630805</v>
+        <v>696.9082079630806</v>
       </c>
       <c r="L29" t="n">
         <v>1229.489175128238</v>
@@ -6473,40 +6473,40 @@
         <v>1816.786565137962</v>
       </c>
       <c r="N29" t="n">
-        <v>2390.671983475651</v>
+        <v>2294.827296096515</v>
       </c>
       <c r="O29" t="n">
-        <v>2885.995531016188</v>
+        <v>2790.150843637052</v>
       </c>
       <c r="P29" t="n">
-        <v>3195.629448918213</v>
+        <v>3195.629448918214</v>
       </c>
       <c r="Q29" t="n">
-        <v>3448.529166667816</v>
+        <v>3448.529166667817</v>
       </c>
       <c r="R29" t="n">
-        <v>3494.380032263921</v>
+        <v>3494.380032263922</v>
       </c>
       <c r="S29" t="n">
-        <v>3423.069301806822</v>
+        <v>3423.069301806823</v>
       </c>
       <c r="T29" t="n">
-        <v>3304.739474670917</v>
+        <v>3304.739474670918</v>
       </c>
       <c r="U29" t="n">
-        <v>3153.574810041773</v>
+        <v>3153.574810041775</v>
       </c>
       <c r="V29" t="n">
-        <v>2920.273234750342</v>
+        <v>2920.273234750343</v>
       </c>
       <c r="W29" t="n">
-        <v>2661.41600342057</v>
+        <v>2661.416003420572</v>
       </c>
       <c r="X29" t="n">
-        <v>2383.06356175469</v>
+        <v>2383.063561754693</v>
       </c>
       <c r="Y29" t="n">
-        <v>2093.199405143156</v>
+        <v>2093.199405143158</v>
       </c>
     </row>
     <row r="30">
@@ -6537,19 +6537,19 @@
         <v>128.3745397551997</v>
       </c>
       <c r="I30" t="n">
-        <v>69.88760064527843</v>
+        <v>69.88760064527844</v>
       </c>
       <c r="J30" t="n">
-        <v>156.7549771159564</v>
+        <v>156.7549771159565</v>
       </c>
       <c r="K30" t="n">
-        <v>431.7317785323534</v>
+        <v>431.7317785323535</v>
       </c>
       <c r="L30" t="n">
-        <v>858.7154986413991</v>
+        <v>858.7154986413993</v>
       </c>
       <c r="M30" t="n">
-        <v>1415.121875386087</v>
+        <v>957.8519900641827</v>
       </c>
       <c r="N30" t="n">
         <v>1542.379690969723</v>
@@ -6595,13 +6595,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>434.1873717463961</v>
+        <v>434.1873717463962</v>
       </c>
       <c r="C31" t="n">
         <v>368.249101020704</v>
       </c>
       <c r="D31" t="n">
-        <v>318.8549066610942</v>
+        <v>318.8549066610943</v>
       </c>
       <c r="E31" t="n">
         <v>270.5235912350406</v>
@@ -6616,19 +6616,19 @@
         <v>103.1668705186979</v>
       </c>
       <c r="I31" t="n">
-        <v>69.88760064527843</v>
+        <v>69.88760064527844</v>
       </c>
       <c r="J31" t="n">
-        <v>129.336298920195</v>
+        <v>129.3362989201952</v>
       </c>
       <c r="K31" t="n">
-        <v>291.9921247617372</v>
+        <v>291.9921247617374</v>
       </c>
       <c r="L31" t="n">
-        <v>529.3237911245885</v>
+        <v>529.3237911245888</v>
       </c>
       <c r="M31" t="n">
-        <v>785.9504604715255</v>
+        <v>785.9504604715257</v>
       </c>
       <c r="N31" t="n">
         <v>1042.125744669635</v>
@@ -6637,31 +6637,31 @@
         <v>1275.583592905267</v>
       </c>
       <c r="P31" t="n">
-        <v>1468.728679813018</v>
+        <v>1468.728679813019</v>
       </c>
       <c r="Q31" t="n">
         <v>1552.347655190349</v>
       </c>
       <c r="R31" t="n">
-        <v>1517.337638659665</v>
+        <v>1517.337638659666</v>
       </c>
       <c r="S31" t="n">
         <v>1411.504706417248</v>
       </c>
       <c r="T31" t="n">
-        <v>1283.032973080711</v>
+        <v>1283.032973080712</v>
       </c>
       <c r="U31" t="n">
         <v>1099.533575204164</v>
       </c>
       <c r="V31" t="n">
-        <v>942.475969575214</v>
+        <v>942.4759695752141</v>
       </c>
       <c r="W31" t="n">
-        <v>759.9972669052406</v>
+        <v>759.9972669052407</v>
       </c>
       <c r="X31" t="n">
-        <v>632.4225016132439</v>
+        <v>632.422501613244</v>
       </c>
       <c r="Y31" t="n">
         <v>514.0650416181485</v>
@@ -6680,49 +6680,49 @@
         <v>1508.08155394893</v>
       </c>
       <c r="D32" t="n">
-        <v>1241.551150710721</v>
+        <v>1241.55115071072</v>
       </c>
       <c r="E32" t="n">
-        <v>953.0589923513944</v>
+        <v>953.058992351394</v>
       </c>
       <c r="F32" t="n">
-        <v>645.2013631961318</v>
+        <v>645.2013631961311</v>
       </c>
       <c r="G32" t="n">
-        <v>335.9280987378179</v>
+        <v>335.928098737817</v>
       </c>
       <c r="H32" t="n">
-        <v>114.9015813824002</v>
+        <v>114.9015813824004</v>
       </c>
       <c r="I32" t="n">
-        <v>69.0868263426439</v>
+        <v>69.08682634264393</v>
       </c>
       <c r="J32" t="n">
-        <v>289.9472632282855</v>
+        <v>235.9686911961329</v>
       </c>
       <c r="K32" t="n">
-        <v>701.2350477679917</v>
+        <v>647.2564757358389</v>
       </c>
       <c r="L32" t="n">
-        <v>1236.379821986922</v>
+        <v>1078.22293029474</v>
       </c>
       <c r="M32" t="n">
-        <v>1826.241019050419</v>
+        <v>1668.084127358237</v>
       </c>
       <c r="N32" t="n">
-        <v>2402.690244441881</v>
+        <v>2244.533352749699</v>
       </c>
       <c r="O32" t="n">
-        <v>2895.013699653914</v>
+        <v>2742.420707344008</v>
       </c>
       <c r="P32" t="n">
-        <v>3303.056111988848</v>
+        <v>3150.463119678943</v>
       </c>
       <c r="Q32" t="n">
-        <v>3454.341317132195</v>
+        <v>3405.926644482319</v>
       </c>
       <c r="R32" t="n">
-        <v>3454.341317132195</v>
+        <v>3454.341317132196</v>
       </c>
       <c r="S32" t="n">
         <v>3385.646449397037</v>
@@ -6731,19 +6731,19 @@
         <v>3269.932484983071</v>
       </c>
       <c r="U32" t="n">
-        <v>3121.383683075866</v>
+        <v>3121.383683075867</v>
       </c>
       <c r="V32" t="n">
-        <v>2890.697970506375</v>
+        <v>2890.697970506376</v>
       </c>
       <c r="W32" t="n">
-        <v>2634.456601898543</v>
+        <v>2634.456601898544</v>
       </c>
       <c r="X32" t="n">
-        <v>2358.720022954603</v>
+        <v>2358.720022954604</v>
       </c>
       <c r="Y32" t="n">
-        <v>2071.471729065008</v>
+        <v>2071.471729065009</v>
       </c>
     </row>
     <row r="33">
@@ -6774,28 +6774,28 @@
         <v>127.5737654525652</v>
       </c>
       <c r="I33" t="n">
-        <v>69.0868263426439</v>
+        <v>69.08682634264393</v>
       </c>
       <c r="J33" t="n">
-        <v>155.9542028133219</v>
+        <v>69.08682634264393</v>
       </c>
       <c r="K33" t="n">
-        <v>430.9310042297188</v>
+        <v>344.0636277590409</v>
       </c>
       <c r="L33" t="n">
-        <v>857.9147243387647</v>
+        <v>771.0473478680867</v>
       </c>
       <c r="M33" t="n">
-        <v>1414.321101083452</v>
+        <v>1150.779924796161</v>
       </c>
       <c r="N33" t="n">
-        <v>1541.578916667089</v>
+        <v>1735.307625701701</v>
       </c>
       <c r="O33" t="n">
-        <v>2000.799334672978</v>
+        <v>2194.52804370759</v>
       </c>
       <c r="P33" t="n">
-        <v>2356.685087522882</v>
+        <v>2550.413796557495</v>
       </c>
       <c r="Q33" t="n">
         <v>2550.413796557495</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>415.0755583901854</v>
+        <v>415.0755583901868</v>
       </c>
       <c r="C34" t="n">
-        <v>351.7531503864327</v>
+        <v>351.7531503864338</v>
       </c>
       <c r="D34" t="n">
-        <v>304.9748187487623</v>
+        <v>304.9748187487634</v>
       </c>
       <c r="E34" t="n">
-        <v>259.2593660446482</v>
+        <v>259.259366044649</v>
       </c>
       <c r="F34" t="n">
-        <v>213.0722726049923</v>
+        <v>213.0722726049929</v>
       </c>
       <c r="G34" t="n">
-        <v>150.6870372390417</v>
+        <v>150.6870372390421</v>
       </c>
       <c r="H34" t="n">
-        <v>99.75023349412388</v>
+        <v>99.7502334941241</v>
       </c>
       <c r="I34" t="n">
-        <v>69.0868263426439</v>
+        <v>69.08682634264393</v>
       </c>
       <c r="J34" t="n">
-        <v>131.0993316713333</v>
+        <v>131.0993316713332</v>
       </c>
       <c r="K34" t="n">
-        <v>296.3189645666484</v>
+        <v>296.318964566648</v>
       </c>
       <c r="L34" t="n">
-        <v>536.2144379832725</v>
+        <v>536.2144379832721</v>
       </c>
       <c r="M34" t="n">
-        <v>795.4049143839824</v>
+        <v>733.0406544027717</v>
       </c>
       <c r="N34" t="n">
-        <v>991.7797456546498</v>
+        <v>991.7797456546534</v>
       </c>
       <c r="O34" t="n">
-        <v>1227.801400944055</v>
+        <v>1227.801400944058</v>
       </c>
       <c r="P34" t="n">
-        <v>1423.510294905579</v>
+        <v>1423.510294905582</v>
       </c>
       <c r="Q34" t="n">
-        <v>1509.693077336683</v>
+        <v>1509.693077336686</v>
       </c>
       <c r="R34" t="n">
-        <v>1477.298923527939</v>
+        <v>1477.298923527941</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.081854007461</v>
+        <v>1374.081854007464</v>
       </c>
       <c r="T34" t="n">
-        <v>1248.225983392864</v>
+        <v>1248.225983392866</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.342448238256</v>
+        <v>1067.342448238258</v>
       </c>
       <c r="V34" t="n">
-        <v>912.9007053312455</v>
+        <v>912.9007053312475</v>
       </c>
       <c r="W34" t="n">
-        <v>733.0378653832115</v>
+        <v>733.0378653832134</v>
       </c>
       <c r="X34" t="n">
-        <v>608.0789628131542</v>
+        <v>608.078962813156</v>
       </c>
       <c r="Y34" t="n">
-        <v>492.3373655399982</v>
+        <v>492.3373655399998</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1432.622392258136</v>
+        <v>1432.622392258137</v>
       </c>
       <c r="C35" t="n">
-        <v>1205.401451068236</v>
+        <v>1205.401451068238</v>
       </c>
       <c r="D35" t="n">
-        <v>987.2903037727531</v>
+        <v>987.2903037727544</v>
       </c>
       <c r="E35" t="n">
-        <v>747.2174013561532</v>
+        <v>747.2174013561545</v>
       </c>
       <c r="F35" t="n">
-        <v>487.7790281436169</v>
+        <v>487.7790281436182</v>
       </c>
       <c r="G35" t="n">
-        <v>226.9250196280299</v>
+        <v>226.9250196280298</v>
       </c>
       <c r="H35" t="n">
         <v>54.31775821533929</v>
@@ -6935,13 +6935,13 @@
         <v>54.31775821533929</v>
       </c>
       <c r="J35" t="n">
-        <v>170.9998754409521</v>
+        <v>170.9998754409518</v>
       </c>
       <c r="K35" t="n">
-        <v>478.1093403206291</v>
+        <v>478.1093403206289</v>
       </c>
       <c r="L35" t="n">
-        <v>909.0757948795301</v>
+        <v>909.0757948795303</v>
       </c>
       <c r="M35" t="n">
         <v>1394.758672282998</v>
@@ -6968,19 +6968,19 @@
         <v>2628.317590503293</v>
       </c>
       <c r="U35" t="n">
-        <v>2528.188044538814</v>
+        <v>2528.188044538815</v>
       </c>
       <c r="V35" t="n">
-        <v>2345.921587912049</v>
+        <v>2345.92158791205</v>
       </c>
       <c r="W35" t="n">
-        <v>2138.099475246943</v>
+        <v>2138.099475246944</v>
       </c>
       <c r="X35" t="n">
-        <v>1910.78215224573</v>
+        <v>1910.782152245731</v>
       </c>
       <c r="Y35" t="n">
-        <v>1671.953114298861</v>
+        <v>1671.953114298862</v>
       </c>
     </row>
     <row r="36">
@@ -7014,25 +7014,25 @@
         <v>54.31775821533929</v>
       </c>
       <c r="J36" t="n">
-        <v>54.31775821533929</v>
+        <v>141.1851346860173</v>
       </c>
       <c r="K36" t="n">
-        <v>152.6207598151227</v>
+        <v>416.1619361024142</v>
       </c>
       <c r="L36" t="n">
-        <v>579.6044799241685</v>
+        <v>843.1456562114599</v>
       </c>
       <c r="M36" t="n">
-        <v>1136.010856668856</v>
+        <v>1399.552032956147</v>
       </c>
       <c r="N36" t="n">
-        <v>1720.538557574396</v>
+        <v>1526.809848539784</v>
       </c>
       <c r="O36" t="n">
-        <v>2179.758975580285</v>
+        <v>1986.030266545673</v>
       </c>
       <c r="P36" t="n">
-        <v>2535.64472843019</v>
+        <v>2341.916019395578</v>
       </c>
       <c r="Q36" t="n">
         <v>2535.64472843019</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>109.1537458746827</v>
+        <v>85.70443750178103</v>
       </c>
       <c r="C37" t="n">
-        <v>94.25059381365631</v>
+        <v>70.80128544075475</v>
       </c>
       <c r="D37" t="n">
-        <v>70.80128544075492</v>
+        <v>70.80128544075475</v>
       </c>
       <c r="E37" t="n">
-        <v>70.80128544075492</v>
+        <v>70.80128544075475</v>
       </c>
       <c r="F37" t="n">
-        <v>70.80128544075492</v>
+        <v>70.80128544075475</v>
       </c>
       <c r="G37" t="n">
-        <v>56.83530601753074</v>
+        <v>56.83530601753066</v>
       </c>
       <c r="H37" t="n">
         <v>54.31775821533929</v>
@@ -7120,25 +7120,25 @@
         <v>784.0230634706251</v>
       </c>
       <c r="S37" t="n">
-        <v>729.2252498928735</v>
+        <v>729.2252498928736</v>
       </c>
       <c r="T37" t="n">
-        <v>651.7886352210026</v>
+        <v>651.7886352210028</v>
       </c>
       <c r="U37" t="n">
-        <v>519.3243560091212</v>
+        <v>519.3243560091215</v>
       </c>
       <c r="V37" t="n">
-        <v>413.3018690448371</v>
+        <v>413.3018690448375</v>
       </c>
       <c r="W37" t="n">
-        <v>281.8582850395296</v>
+        <v>281.8582850395301</v>
       </c>
       <c r="X37" t="n">
-        <v>205.3186384121987</v>
+        <v>181.8693300392969</v>
       </c>
       <c r="Y37" t="n">
-        <v>137.9962970817691</v>
+        <v>114.5469887088674</v>
       </c>
     </row>
     <row r="38">
@@ -7172,13 +7172,13 @@
         <v>54.31775821533929</v>
       </c>
       <c r="J38" t="n">
-        <v>170.9998754409519</v>
+        <v>170.9998754409518</v>
       </c>
       <c r="K38" t="n">
         <v>478.1093403206289</v>
       </c>
       <c r="L38" t="n">
-        <v>909.07579487953</v>
+        <v>909.0757948795299</v>
       </c>
       <c r="M38" t="n">
         <v>1394.758672282998</v>
@@ -7190,7 +7190,7 @@
         <v>2260.738612948712</v>
       </c>
       <c r="P38" t="n">
-        <v>2564.602705623618</v>
+        <v>2564.602705623617</v>
       </c>
       <c r="Q38" t="n">
         <v>2715.887910766965</v>
@@ -7357,7 +7357,7 @@
         <v>784.0230634706251</v>
       </c>
       <c r="S40" t="n">
-        <v>705.7759415199721</v>
+        <v>729.2252498928735</v>
       </c>
       <c r="T40" t="n">
         <v>628.3393268481011</v>
@@ -7385,40 +7385,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1466.75891629298</v>
+        <v>1304.768071458646</v>
       </c>
       <c r="C41" t="n">
-        <v>1218.376556161377</v>
+        <v>1117.439865422358</v>
       </c>
       <c r="D41" t="n">
-        <v>979.1039899241912</v>
+        <v>878.1672991851722</v>
       </c>
       <c r="E41" t="n">
-        <v>717.8696685658883</v>
+        <v>616.9329778268692</v>
       </c>
       <c r="F41" t="n">
-        <v>437.269876411649</v>
+        <v>336.3331856726298</v>
       </c>
       <c r="G41" t="n">
-        <v>155.2544489543593</v>
+        <v>54.31775821533929</v>
       </c>
       <c r="H41" t="n">
-        <v>72.8746762540722</v>
+        <v>54.31775821533929</v>
       </c>
       <c r="I41" t="n">
         <v>54.31775821533929</v>
       </c>
       <c r="J41" t="n">
-        <v>170.9998754409518</v>
+        <v>170.9998754409517</v>
       </c>
       <c r="K41" t="n">
-        <v>478.1093403206289</v>
+        <v>478.1093403206287</v>
       </c>
       <c r="L41" t="n">
-        <v>909.0757948795303</v>
+        <v>909.0757948795297</v>
       </c>
       <c r="M41" t="n">
-        <v>1394.758672282998</v>
+        <v>1394.758672282997</v>
       </c>
       <c r="N41" t="n">
         <v>1867.029578014431</v>
@@ -7436,25 +7436,25 @@
         <v>2715.887910766965</v>
       </c>
       <c r="S41" t="n">
-        <v>2674.450880032829</v>
+        <v>2715.887910766965</v>
       </c>
       <c r="T41" t="n">
-        <v>2585.994752619887</v>
+        <v>2627.431783354022</v>
       </c>
       <c r="U41" t="n">
-        <v>2464.703787713705</v>
+        <v>2506.140818447841</v>
       </c>
       <c r="V41" t="n">
-        <v>2464.703787713705</v>
+        <v>2302.712942879372</v>
       </c>
       <c r="W41" t="n">
-        <v>2235.720256106897</v>
+        <v>2073.729411272563</v>
       </c>
       <c r="X41" t="n">
-        <v>1987.24151416398</v>
+        <v>1825.250669329647</v>
       </c>
       <c r="Y41" t="n">
-        <v>1727.251057275409</v>
+        <v>1565.260212441075</v>
       </c>
     </row>
     <row r="42">
@@ -7488,25 +7488,25 @@
         <v>54.31775821533929</v>
       </c>
       <c r="J42" t="n">
-        <v>54.31775821533929</v>
+        <v>141.1851346860173</v>
       </c>
       <c r="K42" t="n">
-        <v>329.2945596317362</v>
+        <v>141.1851346860173</v>
       </c>
       <c r="L42" t="n">
-        <v>756.278279740782</v>
+        <v>568.1688547950631</v>
       </c>
       <c r="M42" t="n">
-        <v>1312.68465648547</v>
+        <v>1124.575231539751</v>
       </c>
       <c r="N42" t="n">
-        <v>1720.538557574396</v>
+        <v>1526.809848539784</v>
       </c>
       <c r="O42" t="n">
-        <v>2179.758975580285</v>
+        <v>1986.030266545673</v>
       </c>
       <c r="P42" t="n">
-        <v>2535.64472843019</v>
+        <v>2341.916019395578</v>
       </c>
       <c r="Q42" t="n">
         <v>2535.64472843019</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>209.5016312557173</v>
+        <v>209.5016312557179</v>
       </c>
       <c r="C43" t="n">
-        <v>173.4370602529879</v>
+        <v>173.4370602529884</v>
       </c>
       <c r="D43" t="n">
-        <v>153.916565616341</v>
+        <v>153.9165656163414</v>
       </c>
       <c r="E43" t="n">
-        <v>135.4589499132501</v>
+        <v>135.4589499132505</v>
       </c>
       <c r="F43" t="n">
-        <v>116.5296934746176</v>
+        <v>116.5296934746178</v>
       </c>
       <c r="G43" t="n">
-        <v>81.40229510969039</v>
+        <v>81.40229510969056</v>
       </c>
       <c r="H43" t="n">
-        <v>57.72332836579591</v>
+        <v>57.723328365796</v>
       </c>
       <c r="I43" t="n">
         <v>54.31775821533929</v>
       </c>
       <c r="J43" t="n">
-        <v>54.31775821533929</v>
+        <v>67.30586052825612</v>
       </c>
       <c r="K43" t="n">
-        <v>115.3590714506253</v>
+        <v>128.3471737635421</v>
       </c>
       <c r="L43" t="n">
-        <v>251.0762252072203</v>
+        <v>264.0643275201372</v>
       </c>
       <c r="M43" t="n">
-        <v>406.0883819479011</v>
+        <v>549.9702099655499</v>
       </c>
       <c r="N43" t="n">
-        <v>691.542879244486</v>
+        <v>835.4247072621347</v>
       </c>
       <c r="O43" t="n">
-        <v>854.3698544157028</v>
+        <v>967.2680428915106</v>
       </c>
       <c r="P43" t="n">
-        <v>945.900428717198</v>
+        <v>1058.798617193006</v>
       </c>
       <c r="Q43" t="n">
-        <v>1058.798617193004</v>
+        <v>1058.798617193006</v>
       </c>
       <c r="R43" t="n">
-        <v>1053.662300385284</v>
+        <v>1053.662300385285</v>
       </c>
       <c r="S43" t="n">
-        <v>977.7030678658293</v>
+        <v>977.7030678658303</v>
       </c>
       <c r="T43" t="n">
-        <v>879.1050342522553</v>
+        <v>879.1050342522564</v>
       </c>
       <c r="U43" t="n">
-        <v>725.479336098671</v>
+        <v>725.4793360986719</v>
       </c>
       <c r="V43" t="n">
-        <v>598.2954301926839</v>
+        <v>598.2954301926848</v>
       </c>
       <c r="W43" t="n">
-        <v>445.6904272456733</v>
+        <v>445.6904272456741</v>
       </c>
       <c r="X43" t="n">
-        <v>347.9893616766394</v>
+        <v>347.9893616766401</v>
       </c>
       <c r="Y43" t="n">
-        <v>259.5056014045068</v>
+        <v>259.5056014045074</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1329.765463815484</v>
+        <v>1263.331040724511</v>
       </c>
       <c r="C44" t="n">
-        <v>1329.765463815484</v>
+        <v>1014.948680592908</v>
       </c>
       <c r="D44" t="n">
-        <v>1090.492897578298</v>
+        <v>878.1672991851723</v>
       </c>
       <c r="E44" t="n">
-        <v>829.2585762199951</v>
+        <v>616.9329778268693</v>
       </c>
       <c r="F44" t="n">
-        <v>548.658784065756</v>
+        <v>336.33318567263</v>
       </c>
       <c r="G44" t="n">
-        <v>266.6433566084658</v>
+        <v>54.31775821533929</v>
       </c>
       <c r="H44" t="n">
-        <v>72.8746762540722</v>
+        <v>54.31775821533929</v>
       </c>
       <c r="I44" t="n">
         <v>54.31775821533929</v>
@@ -7649,13 +7649,13 @@
         <v>170.9998754409518</v>
       </c>
       <c r="K44" t="n">
-        <v>478.1093403206287</v>
+        <v>478.1093403206289</v>
       </c>
       <c r="L44" t="n">
-        <v>909.0757948795296</v>
+        <v>909.0757948795301</v>
       </c>
       <c r="M44" t="n">
-        <v>1394.758672282997</v>
+        <v>1394.758672282998</v>
       </c>
       <c r="N44" t="n">
         <v>1867.029578014431</v>
@@ -7679,19 +7679,19 @@
         <v>2585.994752619887</v>
       </c>
       <c r="U44" t="n">
-        <v>2531.138210804678</v>
+        <v>2464.703787713705</v>
       </c>
       <c r="V44" t="n">
-        <v>2327.71033523621</v>
+        <v>2261.275912145237</v>
       </c>
       <c r="W44" t="n">
-        <v>2098.726803629401</v>
+        <v>2032.292380538428</v>
       </c>
       <c r="X44" t="n">
-        <v>1850.248061686485</v>
+        <v>1783.813638595512</v>
       </c>
       <c r="Y44" t="n">
-        <v>1590.257604797913</v>
+        <v>1523.82318170694</v>
       </c>
     </row>
     <row r="45">
@@ -7725,25 +7725,25 @@
         <v>54.31775821533929</v>
       </c>
       <c r="J45" t="n">
-        <v>54.31775821533929</v>
+        <v>141.1851346860173</v>
       </c>
       <c r="K45" t="n">
-        <v>329.2945596317363</v>
+        <v>141.1851346860173</v>
       </c>
       <c r="L45" t="n">
-        <v>579.6044799241682</v>
+        <v>568.1688547950631</v>
       </c>
       <c r="M45" t="n">
-        <v>1136.010856668856</v>
+        <v>1124.575231539751</v>
       </c>
       <c r="N45" t="n">
-        <v>1720.538557574396</v>
+        <v>1709.102932445291</v>
       </c>
       <c r="O45" t="n">
-        <v>2179.758975580285</v>
+        <v>1986.030266545673</v>
       </c>
       <c r="P45" t="n">
-        <v>2535.64472843019</v>
+        <v>2341.916019395578</v>
       </c>
       <c r="Q45" t="n">
         <v>2535.64472843019</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>209.5016312557173</v>
+        <v>209.5016312557183</v>
       </c>
       <c r="C46" t="n">
-        <v>173.4370602529879</v>
+        <v>173.4370602529888</v>
       </c>
       <c r="D46" t="n">
-        <v>153.916565616341</v>
+        <v>153.9165656163417</v>
       </c>
       <c r="E46" t="n">
-        <v>135.4589499132501</v>
+        <v>135.4589499132507</v>
       </c>
       <c r="F46" t="n">
-        <v>116.5296934746176</v>
+        <v>116.529693474618</v>
       </c>
       <c r="G46" t="n">
-        <v>81.40229510969037</v>
+        <v>81.40229510969067</v>
       </c>
       <c r="H46" t="n">
-        <v>57.72332836579591</v>
+        <v>57.72332836579606</v>
       </c>
       <c r="I46" t="n">
         <v>54.31775821533929</v>
@@ -7807,49 +7807,49 @@
         <v>54.31775821533929</v>
       </c>
       <c r="K46" t="n">
-        <v>115.3590714506253</v>
+        <v>246.2527971553572</v>
       </c>
       <c r="L46" t="n">
-        <v>251.0762252072204</v>
+        <v>381.9699509119523</v>
       </c>
       <c r="M46" t="n">
-        <v>406.0883819479011</v>
+        <v>536.982107652633</v>
       </c>
       <c r="N46" t="n">
-        <v>560.649153539754</v>
+        <v>722.5265187863292</v>
       </c>
       <c r="O46" t="n">
-        <v>723.4761287109707</v>
+        <v>854.3698544157052</v>
       </c>
       <c r="P46" t="n">
-        <v>945.900428717198</v>
+        <v>945.9004287172004</v>
       </c>
       <c r="Q46" t="n">
-        <v>1058.798617193004</v>
+        <v>1058.798617193007</v>
       </c>
       <c r="R46" t="n">
-        <v>1053.662300385284</v>
+        <v>1053.662300385286</v>
       </c>
       <c r="S46" t="n">
-        <v>977.7030678658293</v>
+        <v>977.7030678658311</v>
       </c>
       <c r="T46" t="n">
-        <v>879.1050342522553</v>
+        <v>879.105034252257</v>
       </c>
       <c r="U46" t="n">
-        <v>725.479336098671</v>
+        <v>725.4793360986725</v>
       </c>
       <c r="V46" t="n">
-        <v>598.2954301926839</v>
+        <v>598.2954301926853</v>
       </c>
       <c r="W46" t="n">
-        <v>445.6904272456733</v>
+        <v>445.6904272456746</v>
       </c>
       <c r="X46" t="n">
-        <v>347.9893616766394</v>
+        <v>347.9893616766406</v>
       </c>
       <c r="Y46" t="n">
-        <v>259.5056014045068</v>
+        <v>259.5056014045079</v>
       </c>
     </row>
   </sheetData>
@@ -8453,25 +8453,25 @@
         <v>157.109476210864</v>
       </c>
       <c r="K8" t="n">
-        <v>178.8230039740467</v>
+        <v>188.4282512910011</v>
       </c>
       <c r="L8" t="n">
         <v>191.5602121631146</v>
       </c>
       <c r="M8" t="n">
-        <v>187.1563144971591</v>
+        <v>197.1659932800904</v>
       </c>
       <c r="N8" t="n">
         <v>186.3981141722301</v>
       </c>
       <c r="O8" t="n">
-        <v>196.5600440970748</v>
+        <v>186.9547967801205</v>
       </c>
       <c r="P8" t="n">
         <v>197.8864878340879</v>
       </c>
       <c r="Q8" t="n">
-        <v>190.6330518059216</v>
+        <v>180.6233730229902</v>
       </c>
       <c r="R8" t="n">
         <v>85.43134583487716</v>
@@ -8535,10 +8535,10 @@
         <v>111.9961691666667</v>
       </c>
       <c r="L9" t="n">
-        <v>122.5851123540791</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M9" t="n">
-        <v>115.4839025616399</v>
+        <v>125.0891498785942</v>
       </c>
       <c r="N9" t="n">
         <v>106.7151410677083</v>
@@ -8550,7 +8550,7 @@
         <v>118.8638848070747</v>
       </c>
       <c r="Q9" t="n">
-        <v>123.3404387618468</v>
+        <v>123.7448702278239</v>
       </c>
       <c r="R9" t="n">
         <v>59.17817075471706</v>
@@ -8611,22 +8611,22 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K10" t="n">
-        <v>104.82327226356</v>
+        <v>114.8329510464913</v>
       </c>
       <c r="L10" t="n">
         <v>109.5937994785061</v>
       </c>
       <c r="M10" t="n">
-        <v>122.4824467743834</v>
+        <v>122.8868782403605</v>
       </c>
       <c r="N10" t="n">
         <v>113.7541836609333</v>
       </c>
       <c r="O10" t="n">
-        <v>122.5056162750536</v>
+        <v>122.1011848090766</v>
       </c>
       <c r="P10" t="n">
-        <v>121.9136820728638</v>
+        <v>111.9040032899324</v>
       </c>
       <c r="Q10" t="n">
         <v>84.9458458910769</v>
@@ -8687,13 +8687,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.5751177101334</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K11" t="n">
         <v>421.3890363425141</v>
       </c>
       <c r="L11" t="n">
-        <v>542.9595789155856</v>
+        <v>360.8957583733888</v>
       </c>
       <c r="M11" t="n">
         <v>584.3675935406823</v>
@@ -8708,7 +8708,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q11" t="n">
-        <v>123.1961493292428</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R11" t="n">
         <v>85.43134583487716</v>
@@ -8769,22 +8769,22 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K12" t="n">
-        <v>66.05046325130478</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L12" t="n">
-        <v>297.9580207071161</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M12" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N12" t="n">
-        <v>623.1450866466196</v>
+        <v>520.7368720284388</v>
       </c>
       <c r="O12" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P12" t="n">
-        <v>414.0015992319183</v>
+        <v>54.52104079767111</v>
       </c>
       <c r="Q12" t="n">
         <v>273.1004740566038</v>
@@ -8924,10 +8924,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>101.9648752533802</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K14" t="n">
-        <v>421.3890363425141</v>
+        <v>239.3252158003179</v>
       </c>
       <c r="L14" t="n">
         <v>542.9595789155856</v>
@@ -8945,7 +8945,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q14" t="n">
-        <v>211.8063917859958</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R14" t="n">
         <v>85.43134583487716</v>
@@ -9003,7 +9003,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>76.17352122467493</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K15" t="n">
         <v>343.8048081163522</v>
@@ -9012,7 +9012,7 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M15" t="n">
-        <v>605.4165828749999</v>
+        <v>143.5278098225717</v>
       </c>
       <c r="N15" t="n">
         <v>623.1450866466196</v>
@@ -9021,10 +9021,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P15" t="n">
-        <v>235.5432155787733</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q15" t="n">
-        <v>77.41490937517761</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R15" t="n">
         <v>59.17817075471706</v>
@@ -9161,10 +9161,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>101.9648752533802</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K17" t="n">
-        <v>421.3890363425141</v>
+        <v>239.3252158003179</v>
       </c>
       <c r="L17" t="n">
         <v>542.9595789155856</v>
@@ -9179,7 +9179,7 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P17" t="n">
-        <v>354.1352245510474</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q17" t="n">
         <v>276.0094878578761</v>
@@ -9240,7 +9240,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J18" t="n">
-        <v>76.17352122467493</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K18" t="n">
         <v>343.8048081163522</v>
@@ -9252,10 +9252,10 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N18" t="n">
-        <v>623.1450866466196</v>
+        <v>161.2563135941912</v>
       </c>
       <c r="O18" t="n">
-        <v>137.8770667251768</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P18" t="n">
         <v>414.0015992319183</v>
@@ -9410,10 +9410,10 @@
         <v>584.3675935406823</v>
       </c>
       <c r="N20" t="n">
-        <v>386.4871811933839</v>
+        <v>568.5510017355793</v>
       </c>
       <c r="O20" t="n">
-        <v>495.0402356415689</v>
+        <v>312.9764150993726</v>
       </c>
       <c r="P20" t="n">
         <v>418.3383206229274</v>
@@ -9486,10 +9486,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M21" t="n">
-        <v>605.4165828749999</v>
+        <v>143.5278098225717</v>
       </c>
       <c r="N21" t="n">
-        <v>161.2563135941921</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O21" t="n">
         <v>512.0210150597484</v>
@@ -9635,10 +9635,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>101.9648752533802</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K23" t="n">
-        <v>421.3890363425141</v>
+        <v>239.3252158003179</v>
       </c>
       <c r="L23" t="n">
         <v>542.9595789155856</v>
@@ -9656,7 +9656,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q23" t="n">
-        <v>211.8063917859958</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R23" t="n">
         <v>85.43134583487716</v>
@@ -9714,19 +9714,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>163.9183459425315</v>
+        <v>76.17352122467493</v>
       </c>
       <c r="K24" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L24" t="n">
-        <v>482.0924488944969</v>
+        <v>107.9485005599253</v>
       </c>
       <c r="M24" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N24" t="n">
-        <v>161.2563135941921</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O24" t="n">
         <v>512.0210150597484</v>
@@ -9960,10 +9960,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M27" t="n">
-        <v>605.4165828749999</v>
+        <v>143.5278098225715</v>
       </c>
       <c r="N27" t="n">
-        <v>161.2563135941913</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O27" t="n">
         <v>512.0210150597484</v>
@@ -10197,10 +10197,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M30" t="n">
-        <v>605.4165828749999</v>
+        <v>143.5278098225715</v>
       </c>
       <c r="N30" t="n">
-        <v>161.2563135941917</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O30" t="n">
         <v>512.0210150597484</v>
@@ -10425,7 +10425,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J33" t="n">
-        <v>163.9183459425315</v>
+        <v>76.17352122467493</v>
       </c>
       <c r="K33" t="n">
         <v>343.8048081163522</v>
@@ -10434,10 +10434,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M33" t="n">
-        <v>605.4165828749999</v>
+        <v>426.958199221855</v>
       </c>
       <c r="N33" t="n">
-        <v>161.2563135941917</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O33" t="n">
         <v>512.0210150597484</v>
@@ -10446,7 +10446,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q33" t="n">
-        <v>273.1004740566038</v>
+        <v>77.41490937517761</v>
       </c>
       <c r="R33" t="n">
         <v>59.17817075471706</v>
@@ -10589,7 +10589,7 @@
         <v>421.3890363425141</v>
       </c>
       <c r="L35" t="n">
-        <v>542.9595789155856</v>
+        <v>542.959578915586</v>
       </c>
       <c r="M35" t="n">
         <v>584.3675935406823</v>
@@ -10662,10 +10662,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J36" t="n">
-        <v>76.17352122467493</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K36" t="n">
-        <v>165.3464244632071</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L36" t="n">
         <v>482.0924488944969</v>
@@ -10674,7 +10674,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N36" t="n">
-        <v>623.1450866466196</v>
+        <v>161.2563135941917</v>
       </c>
       <c r="O36" t="n">
         <v>512.0210150597484</v>
@@ -10683,7 +10683,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q36" t="n">
-        <v>77.41490937517761</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R36" t="n">
         <v>59.17817075471706</v>
@@ -10841,7 +10841,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q38" t="n">
-        <v>276.0094878578761</v>
+        <v>276.0094878578765</v>
       </c>
       <c r="R38" t="n">
         <v>85.43134583487716</v>
@@ -11063,7 +11063,7 @@
         <v>421.3890363425141</v>
       </c>
       <c r="L41" t="n">
-        <v>542.959578915586</v>
+        <v>542.9595789155856</v>
       </c>
       <c r="M41" t="n">
         <v>584.3675935406823</v>
@@ -11136,10 +11136,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J42" t="n">
-        <v>76.17352122467493</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K42" t="n">
-        <v>343.8048081163522</v>
+        <v>66.05046325130478</v>
       </c>
       <c r="L42" t="n">
         <v>482.0924488944969</v>
@@ -11148,7 +11148,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N42" t="n">
-        <v>444.6867029934744</v>
+        <v>439.0106584592388</v>
       </c>
       <c r="O42" t="n">
         <v>512.0210150597484</v>
@@ -11157,7 +11157,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q42" t="n">
-        <v>77.41490937517761</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R42" t="n">
         <v>59.17817075471706</v>
@@ -11373,13 +11373,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J45" t="n">
-        <v>76.17352122467491</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K45" t="n">
-        <v>343.8048081163522</v>
+        <v>66.05046325130478</v>
       </c>
       <c r="L45" t="n">
-        <v>303.6340652413516</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M45" t="n">
         <v>605.4165828749999</v>
@@ -11388,13 +11388,13 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O45" t="n">
-        <v>512.0210150597484</v>
+        <v>327.8865868723674</v>
       </c>
       <c r="P45" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q45" t="n">
-        <v>77.41490937517759</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R45" t="n">
         <v>59.17817075471706</v>
@@ -23258,10 +23258,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>275.4734992560195</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>266.4548033005474</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>221.4059562765829</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>47.94631158407877</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23315,13 +23315,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>126.4227312680396</v>
+        <v>230.9685595385168</v>
       </c>
       <c r="W11" t="n">
-        <v>256.2686590164737</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>275.5689172492204</v>
+        <v>166.9581760900271</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1.27897692436818e-13</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23498,22 +23498,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>266.4548033005474</v>
       </c>
       <c r="E14" t="n">
         <v>288.196940870453</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>109.7297947580913</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>208.9183328910283</v>
+        <v>221.4059562765828</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>47.94631158407876</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23549,7 +23549,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>149.6530179828525</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>286.9655150454191</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -24458,7 +24458,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>-7.389644451905042e-13</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -25628,7 +25628,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>60.44361255436118</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25643,10 +25643,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>110.2750185775653</v>
+        <v>191.8309935508497</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>18.37134885834568</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,7 +25676,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>41.02266042679433</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25685,7 +25685,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>201.3935968127836</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25865,10 +25865,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>245.8985365302863</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>101.466272981156</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25880,10 +25880,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>191.8309935508498</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>18.37134885834573</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25919,7 +25919,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>65.77007886006263</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>775560.3464777723</v>
+        <v>775560.3464777722</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>847525.3344364957</v>
+        <v>847525.3344364958</v>
       </c>
     </row>
     <row r="11">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>825197.3948299313</v>
+        <v>825197.394829931</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>825197.3948299313</v>
+        <v>825197.394829931</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26314,46 @@
         <v>650995.1367812088</v>
       </c>
       <c r="C2" t="n">
-        <v>650995.1367812087</v>
+        <v>650995.1367812088</v>
       </c>
       <c r="D2" t="n">
         <v>652349.6465141153</v>
       </c>
       <c r="E2" t="n">
-        <v>589304.0220526597</v>
+        <v>589304.02205266</v>
       </c>
       <c r="F2" t="n">
-        <v>589304.0220526602</v>
+        <v>589304.02205266</v>
       </c>
       <c r="G2" t="n">
-        <v>652480.4514200538</v>
+        <v>652480.4514200544</v>
       </c>
       <c r="H2" t="n">
-        <v>652480.4514200538</v>
+        <v>652480.4514200547</v>
       </c>
       <c r="I2" t="n">
-        <v>652480.4514200538</v>
+        <v>652480.4514200547</v>
       </c>
       <c r="J2" t="n">
-        <v>652480.4514200556</v>
+        <v>652480.4514200558</v>
       </c>
       <c r="K2" t="n">
-        <v>652480.4514200554</v>
+        <v>652480.4514200557</v>
       </c>
       <c r="L2" t="n">
-        <v>652480.4514200535</v>
+        <v>652480.4514200542</v>
       </c>
       <c r="M2" t="n">
         <v>652480.4514200547</v>
       </c>
       <c r="N2" t="n">
-        <v>652480.4514200544</v>
+        <v>652480.4514200548</v>
       </c>
       <c r="O2" t="n">
-        <v>631392.9529027438</v>
+        <v>631392.9529027436</v>
       </c>
       <c r="P2" t="n">
-        <v>631392.9529027437</v>
+        <v>631392.9529027439</v>
       </c>
     </row>
     <row r="3">
@@ -26372,10 +26372,10 @@
         <v>3109.306520341968</v>
       </c>
       <c r="E3" t="n">
-        <v>374397.5836627404</v>
+        <v>374397.5836627405</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.415845301584341e-11</v>
       </c>
       <c r="G3" t="n">
         <v>50616.42829746711</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94448.75405589241</v>
+        <v>94448.7540558925</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>3.899451964150939e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>52688.19157324316</v>
+        <v>52688.19157324301</v>
       </c>
       <c r="M3" t="n">
-        <v>147591.2452609263</v>
+        <v>147591.2452609264</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>14736.46536030508</v>
+        <v>14736.465360305</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26430,19 +26430,19 @@
         <v>258356.8472850849</v>
       </c>
       <c r="G4" t="n">
-        <v>300544.5852893461</v>
+        <v>300544.585289346</v>
       </c>
       <c r="H4" t="n">
-        <v>300544.5852893461</v>
+        <v>300544.5852893459</v>
       </c>
       <c r="I4" t="n">
         <v>300544.585289346</v>
       </c>
       <c r="J4" t="n">
-        <v>298554.9100097941</v>
+        <v>298554.9100097942</v>
       </c>
       <c r="K4" t="n">
-        <v>298554.9100097941</v>
+        <v>298554.9100097942</v>
       </c>
       <c r="L4" t="n">
         <v>298501.2971321294</v>
@@ -26451,13 +26451,13 @@
         <v>297531.5125653392</v>
       </c>
       <c r="N4" t="n">
-        <v>297531.5125653391</v>
+        <v>297531.5125653392</v>
       </c>
       <c r="O4" t="n">
-        <v>283457.1057087543</v>
+        <v>283457.1057087542</v>
       </c>
       <c r="P4" t="n">
-        <v>283457.1057087543</v>
+        <v>283457.1057087542</v>
       </c>
     </row>
     <row r="5">
@@ -26476,10 +26476,10 @@
         <v>34236.18847000223</v>
       </c>
       <c r="E5" t="n">
-        <v>49998.56587267924</v>
+        <v>49998.56587267923</v>
       </c>
       <c r="F5" t="n">
-        <v>49998.56587267924</v>
+        <v>49998.56587267923</v>
       </c>
       <c r="G5" t="n">
         <v>55317.65651085394</v>
@@ -26491,25 +26491,25 @@
         <v>55317.65651085394</v>
       </c>
       <c r="J5" t="n">
-        <v>64627.25466179927</v>
+        <v>64627.25466179928</v>
       </c>
       <c r="K5" t="n">
-        <v>64627.25466179926</v>
+        <v>64627.25466179928</v>
       </c>
       <c r="L5" t="n">
         <v>64236.38002533605</v>
       </c>
       <c r="M5" t="n">
-        <v>57041.74109215512</v>
+        <v>57041.74109215513</v>
       </c>
       <c r="N5" t="n">
         <v>57041.74109215512</v>
       </c>
       <c r="O5" t="n">
-        <v>55280.51195643519</v>
+        <v>55280.51195643518</v>
       </c>
       <c r="P5" t="n">
-        <v>55280.51195643519</v>
+        <v>55280.51195643518</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>220297.3793774927</v>
+        <v>220293.0108050256</v>
       </c>
       <c r="C6" t="n">
-        <v>220297.3793774926</v>
+        <v>220293.0108050256</v>
       </c>
       <c r="D6" t="n">
-        <v>218227.5397125511</v>
+        <v>218227.1549922395</v>
       </c>
       <c r="E6" t="n">
-        <v>-93448.97476784492</v>
+        <v>-93634.78779539576</v>
       </c>
       <c r="F6" t="n">
-        <v>280948.6088948961</v>
+        <v>280762.7958673447</v>
       </c>
       <c r="G6" t="n">
-        <v>246001.7813223868</v>
+        <v>246001.7813223874</v>
       </c>
       <c r="H6" t="n">
-        <v>296618.2096198538</v>
+        <v>296618.2096198548</v>
       </c>
       <c r="I6" t="n">
-        <v>296618.2096198539</v>
+        <v>296618.2096198547</v>
       </c>
       <c r="J6" t="n">
-        <v>194849.5326925697</v>
+        <v>194849.5326925699</v>
       </c>
       <c r="K6" t="n">
-        <v>289298.286748462</v>
+        <v>289298.2867484622</v>
       </c>
       <c r="L6" t="n">
-        <v>237054.5826893449</v>
+        <v>237054.5826893458</v>
       </c>
       <c r="M6" t="n">
-        <v>150315.9525016341</v>
+        <v>150315.9525016339</v>
       </c>
       <c r="N6" t="n">
-        <v>297907.1977625602</v>
+        <v>297907.1977625606</v>
       </c>
       <c r="O6" t="n">
-        <v>277918.8698772494</v>
+        <v>277856.8478227865</v>
       </c>
       <c r="P6" t="n">
-        <v>292655.3352375543</v>
+        <v>292593.3131830919</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>102.6409218245012</v>
       </c>
       <c r="L2" t="n">
-        <v>105.2306259192213</v>
+        <v>105.2306259192211</v>
       </c>
       <c r="M2" t="n">
-        <v>153.1656893025204</v>
+        <v>153.1656893025205</v>
       </c>
       <c r="N2" t="n">
         <v>153.1656893025204</v>
       </c>
       <c r="O2" t="n">
-        <v>132.2158845502344</v>
+        <v>132.2158845502343</v>
       </c>
       <c r="P2" t="n">
-        <v>132.2158845502344</v>
+        <v>132.2158845502343</v>
       </c>
     </row>
     <row r="3">
@@ -26744,7 +26744,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>132.2825006662238</v>
+        <v>132.2825006662239</v>
       </c>
       <c r="F3" t="n">
         <v>132.2825006662238</v>
@@ -26762,7 +26762,7 @@
         <v>132.2825006662239</v>
       </c>
       <c r="K3" t="n">
-        <v>132.2825006662238</v>
+        <v>132.2825006662239</v>
       </c>
       <c r="L3" t="n">
         <v>132.2825006662238</v>
@@ -26777,7 +26777,7 @@
         <v>132.2825006662238</v>
       </c>
       <c r="P3" t="n">
-        <v>132.2825006662239</v>
+        <v>132.2825006662238</v>
       </c>
     </row>
     <row r="4">
@@ -26796,28 +26796,28 @@
         <v>10.00967878293136</v>
       </c>
       <c r="E4" t="n">
-        <v>632.9915740344009</v>
+        <v>632.9915740344007</v>
       </c>
       <c r="F4" t="n">
-        <v>632.9915740344009</v>
+        <v>632.9915740344007</v>
       </c>
       <c r="G4" t="n">
-        <v>632.9915740344009</v>
+        <v>632.9915740344007</v>
       </c>
       <c r="H4" t="n">
-        <v>632.9915740344009</v>
+        <v>632.9915740344007</v>
       </c>
       <c r="I4" t="n">
-        <v>632.9915740344009</v>
+        <v>632.9915740344007</v>
       </c>
       <c r="J4" t="n">
-        <v>873.5950080659802</v>
+        <v>873.5950080659804</v>
       </c>
       <c r="K4" t="n">
-        <v>873.5950080659802</v>
+        <v>873.5950080659804</v>
       </c>
       <c r="L4" t="n">
-        <v>863.5853292830488</v>
+        <v>863.5853292830491</v>
       </c>
       <c r="M4" t="n">
         <v>678.9719776917411</v>
@@ -26917,7 +26917,7 @@
         <v>102.6409218245012</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.019806626980426e-14</v>
       </c>
       <c r="G2" t="n">
         <v>63.27053537183389</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>39.37038645266733</v>
+        <v>39.37038645266732</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>4.874314955188675e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>65.86023946655395</v>
+        <v>65.86023946655376</v>
       </c>
       <c r="M2" t="n">
-        <v>47.93506338329911</v>
+        <v>47.93506338329938</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>18.42058170038135</v>
+        <v>18.42058170038125</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>132.2825006662238</v>
+        <v>132.2825006662239</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>10.00967878293136</v>
       </c>
       <c r="E4" t="n">
-        <v>622.9818952514695</v>
+        <v>622.9818952514694</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>240.6034340315794</v>
+        <v>240.6034340315797</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>438.3685436601618</v>
+        <v>438.3685436601614</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,7 +27154,7 @@
         <v>102.6409218245012</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.019806626980426e-14</v>
       </c>
       <c r="L2" t="n">
         <v>63.27053537183389</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>39.37038645266733</v>
+        <v>39.37038645266732</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>4.874314955188675e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>10.00967878293136</v>
       </c>
       <c r="M4" t="n">
-        <v>622.9818952514695</v>
+        <v>622.9818952514694</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27898,19 +27898,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>80.91537856709924</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S8" t="n">
-        <v>175.3470068330182</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T8" t="n">
         <v>222.1153568062989</v>
       </c>
       <c r="U8" t="n">
-        <v>252.3364829231459</v>
+        <v>243.51995785114</v>
       </c>
       <c r="V8" t="n">
-        <v>333.6094813630181</v>
+        <v>323.5998025800867</v>
       </c>
       <c r="W8" t="n">
         <v>358.909580840975</v>
@@ -27932,13 +27932,13 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C9" t="n">
-        <v>150.0769572485235</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D9" t="n">
         <v>137.45025063969</v>
       </c>
       <c r="E9" t="n">
-        <v>145.5577298436975</v>
+        <v>135.5480510607661</v>
       </c>
       <c r="F9" t="n">
         <v>133.3468600696244</v>
@@ -27947,10 +27947,10 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H9" t="n">
-        <v>98.93847887876893</v>
+        <v>88.92880009583757</v>
       </c>
       <c r="I9" t="n">
-        <v>58.88193738483366</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,16 +27977,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.17674743307231</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S9" t="n">
-        <v>141.2618133344558</v>
+        <v>142.4549670453812</v>
       </c>
       <c r="T9" t="n">
         <v>186.7982527956746</v>
       </c>
       <c r="U9" t="n">
-        <v>216.3098444776729</v>
+        <v>206.3001656947416</v>
       </c>
       <c r="V9" t="n">
         <v>226.1116663261494</v>
@@ -28014,13 +28014,13 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D10" t="n">
-        <v>151.5411742405149</v>
+        <v>142.724649168509</v>
       </c>
       <c r="E10" t="n">
         <v>150.4889240962943</v>
       </c>
       <c r="F10" t="n">
-        <v>140.9461696415493</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G10" t="n">
         <v>167.2305511458285</v>
@@ -28032,7 +28032,7 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J10" t="n">
-        <v>49.44698741703764</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.33544286084191</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R10" t="n">
-        <v>148.0265635717656</v>
+        <v>138.0168847888342</v>
       </c>
       <c r="S10" t="n">
         <v>211.5726649703493</v>
@@ -28068,16 +28068,16 @@
         <v>284.3183371157911</v>
       </c>
       <c r="V10" t="n">
-        <v>258.1279513971616</v>
+        <v>248.1182726142302</v>
       </c>
       <c r="W10" t="n">
         <v>283.2948374677749</v>
       </c>
       <c r="X10" t="n">
-        <v>218.9302606806466</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y10" t="n">
-        <v>219.8148072196457</v>
+        <v>209.8051284367143</v>
       </c>
     </row>
     <row r="11">
@@ -28135,7 +28135,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>56.32691617187029</v>
+        <v>56.32691617187027</v>
       </c>
       <c r="S11" t="n">
         <v>102.6409218245012</v>
@@ -28764,10 +28764,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>18.17731033224807</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>137.300838189878</v>
+        <v>2.313281970636808</v>
       </c>
       <c r="S19" t="n">
         <v>165.9114571963351</v>
@@ -28782,7 +28782,7 @@
         <v>165.9114571963351</v>
       </c>
       <c r="W19" t="n">
-        <v>12.74659064484604</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="X19" t="n">
         <v>165.9114571963351</v>
@@ -28962,7 +28962,7 @@
         <v>165.9114571963351</v>
       </c>
       <c r="D22" t="n">
-        <v>151.5411742405149</v>
+        <v>16.55361802127359</v>
       </c>
       <c r="E22" t="n">
         <v>150.4889240962943</v>
@@ -29022,7 +29022,7 @@
         <v>165.9114571963351</v>
       </c>
       <c r="X22" t="n">
-        <v>30.92390097709406</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="Y22" t="n">
         <v>165.9114571963351</v>
@@ -29193,7 +29193,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>163.7024390693267</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="C25" t="n">
         <v>165.9114571963351</v>
@@ -29205,7 +29205,7 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G25" t="n">
         <v>165.9114571963351</v>
@@ -29238,10 +29238,10 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>18.17731033224807</v>
+        <v>2.313281970636799</v>
       </c>
       <c r="R25" t="n">
-        <v>137.300838189878</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>165.9114571963351</v>
@@ -29296,10 +29296,10 @@
         <v>102.6409218245012</v>
       </c>
       <c r="J26" t="n">
+        <v>5.828106290020074</v>
+      </c>
+      <c r="K26" t="n">
         <v>102.6409218245012</v>
-      </c>
-      <c r="K26" t="n">
-        <v>5.82810629001915</v>
       </c>
       <c r="L26" t="n">
         <v>102.6409218245012</v>
@@ -29545,13 +29545,13 @@
         <v>102.6409218245012</v>
       </c>
       <c r="N29" t="n">
-        <v>102.6409218245012</v>
+        <v>5.828106290019889</v>
       </c>
       <c r="O29" t="n">
         <v>102.6409218245012</v>
       </c>
       <c r="P29" t="n">
-        <v>5.828106290019718</v>
+        <v>102.6409218245012</v>
       </c>
       <c r="Q29" t="n">
         <v>102.6409218245012</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>105.2306259192213</v>
+        <v>105.2306259192211</v>
       </c>
       <c r="C32" t="n">
-        <v>105.2306259192213</v>
+        <v>105.2306259192211</v>
       </c>
       <c r="D32" t="n">
-        <v>105.2306259192213</v>
+        <v>105.2306259192211</v>
       </c>
       <c r="E32" t="n">
-        <v>105.2306259192213</v>
+        <v>105.2306259192211</v>
       </c>
       <c r="F32" t="n">
-        <v>105.2306259192213</v>
+        <v>105.2306259192211</v>
       </c>
       <c r="G32" t="n">
-        <v>105.2306259192213</v>
+        <v>105.2306259192211</v>
       </c>
       <c r="H32" t="n">
-        <v>105.2306259192213</v>
+        <v>105.2306259192211</v>
       </c>
       <c r="I32" t="n">
-        <v>105.2306259192213</v>
+        <v>105.2306259192211</v>
       </c>
       <c r="J32" t="n">
-        <v>105.2306259192213</v>
+        <v>50.7068157857338</v>
       </c>
       <c r="K32" t="n">
-        <v>105.2306259192213</v>
+        <v>105.2306259192211</v>
       </c>
       <c r="L32" t="n">
-        <v>105.2306259192213</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>105.2306259192213</v>
+        <v>105.2306259192211</v>
       </c>
       <c r="N32" t="n">
-        <v>105.2306259192213</v>
+        <v>105.2306259192211</v>
       </c>
       <c r="O32" t="n">
-        <v>99.61052553308281</v>
+        <v>105.2306259192211</v>
       </c>
       <c r="P32" t="n">
-        <v>105.2306259192213</v>
+        <v>105.2306259192211</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>105.2306259192211</v>
       </c>
       <c r="R32" t="n">
-        <v>56.32691617187029</v>
+        <v>105.2306259192211</v>
       </c>
       <c r="S32" t="n">
-        <v>105.2306259192213</v>
+        <v>105.2306259192211</v>
       </c>
       <c r="T32" t="n">
-        <v>105.2306259192213</v>
+        <v>105.2306259192211</v>
       </c>
       <c r="U32" t="n">
-        <v>105.2306259192213</v>
+        <v>105.2306259192211</v>
       </c>
       <c r="V32" t="n">
-        <v>105.2306259192213</v>
+        <v>105.2306259192211</v>
       </c>
       <c r="W32" t="n">
-        <v>105.2306259192213</v>
+        <v>105.2306259192211</v>
       </c>
       <c r="X32" t="n">
-        <v>105.2306259192213</v>
+        <v>105.2306259192211</v>
       </c>
       <c r="Y32" t="n">
-        <v>105.2306259192213</v>
+        <v>105.2306259192211</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>105.2306259192213</v>
+        <v>105.2306259192211</v>
       </c>
       <c r="C34" t="n">
-        <v>105.2306259192213</v>
+        <v>105.2306259192211</v>
       </c>
       <c r="D34" t="n">
-        <v>105.2306259192213</v>
+        <v>105.2306259192211</v>
       </c>
       <c r="E34" t="n">
-        <v>105.2306259192213</v>
+        <v>105.2306259192211</v>
       </c>
       <c r="F34" t="n">
-        <v>105.2306259192213</v>
+        <v>105.2306259192211</v>
       </c>
       <c r="G34" t="n">
-        <v>105.2306259192213</v>
+        <v>105.2306259192211</v>
       </c>
       <c r="H34" t="n">
-        <v>105.2306259192213</v>
+        <v>105.2306259192211</v>
       </c>
       <c r="I34" t="n">
-        <v>105.2306259192213</v>
+        <v>105.2306259192211</v>
       </c>
       <c r="J34" t="n">
-        <v>105.2306259192213</v>
+        <v>105.2306259192211</v>
       </c>
       <c r="K34" t="n">
-        <v>105.2306259192213</v>
+        <v>105.2306259192211</v>
       </c>
       <c r="L34" t="n">
-        <v>105.2306259192213</v>
+        <v>105.2306259192211</v>
       </c>
       <c r="M34" t="n">
-        <v>105.2306259192213</v>
+        <v>42.23642391799885</v>
       </c>
       <c r="N34" t="n">
-        <v>42.23642391799453</v>
+        <v>105.2306259192211</v>
       </c>
       <c r="O34" t="n">
-        <v>105.2306259192213</v>
+        <v>105.2306259192211</v>
       </c>
       <c r="P34" t="n">
-        <v>105.2306259192213</v>
+        <v>105.2306259192211</v>
       </c>
       <c r="Q34" t="n">
-        <v>105.2306259192213</v>
+        <v>105.2306259192211</v>
       </c>
       <c r="R34" t="n">
-        <v>105.2306259192213</v>
+        <v>105.2306259192211</v>
       </c>
       <c r="S34" t="n">
-        <v>105.2306259192213</v>
+        <v>105.2306259192211</v>
       </c>
       <c r="T34" t="n">
-        <v>105.2306259192213</v>
+        <v>105.2306259192211</v>
       </c>
       <c r="U34" t="n">
-        <v>105.2306259192213</v>
+        <v>105.2306259192211</v>
       </c>
       <c r="V34" t="n">
-        <v>105.2306259192213</v>
+        <v>105.2306259192211</v>
       </c>
       <c r="W34" t="n">
-        <v>105.2306259192213</v>
+        <v>105.2306259192211</v>
       </c>
       <c r="X34" t="n">
-        <v>105.2306259192213</v>
+        <v>105.2306259192211</v>
       </c>
       <c r="Y34" t="n">
-        <v>105.2306259192213</v>
+        <v>105.2306259192211</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>153.1656893025204</v>
+        <v>153.1656893025205</v>
       </c>
       <c r="C35" t="n">
-        <v>153.1656893025204</v>
+        <v>153.1656893025205</v>
       </c>
       <c r="D35" t="n">
-        <v>153.1656893025204</v>
+        <v>153.1656893025205</v>
       </c>
       <c r="E35" t="n">
-        <v>153.1656893025204</v>
+        <v>153.1656893025205</v>
       </c>
       <c r="F35" t="n">
-        <v>153.1656893025204</v>
+        <v>153.1656893025205</v>
       </c>
       <c r="G35" t="n">
-        <v>153.1656893025204</v>
+        <v>153.1656893025205</v>
       </c>
       <c r="H35" t="n">
-        <v>153.1656893025204</v>
+        <v>153.1656893025205</v>
       </c>
       <c r="I35" t="n">
         <v>150.58723340858</v>
@@ -30034,25 +30034,25 @@
         <v>56.32691617187029</v>
       </c>
       <c r="S35" t="n">
-        <v>153.1656893025204</v>
+        <v>153.1656893025205</v>
       </c>
       <c r="T35" t="n">
-        <v>153.1656893025204</v>
+        <v>153.1656893025205</v>
       </c>
       <c r="U35" t="n">
-        <v>153.1656893025204</v>
+        <v>153.1656893025205</v>
       </c>
       <c r="V35" t="n">
-        <v>153.1656893025204</v>
+        <v>153.1656893025205</v>
       </c>
       <c r="W35" t="n">
-        <v>153.1656893025204</v>
+        <v>153.1656893025205</v>
       </c>
       <c r="X35" t="n">
-        <v>153.1656893025204</v>
+        <v>153.1656893025205</v>
       </c>
       <c r="Y35" t="n">
-        <v>153.1656893025204</v>
+        <v>153.1656893025205</v>
       </c>
     </row>
     <row r="36">
@@ -30141,13 +30141,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>153.1656893025204</v>
+        <v>153.1656893025205</v>
       </c>
       <c r="C37" t="n">
-        <v>153.1656893025204</v>
+        <v>153.1656893025205</v>
       </c>
       <c r="D37" t="n">
-        <v>128.3263589513425</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E37" t="n">
         <v>150.4889240962943</v>
@@ -30156,10 +30156,10 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G37" t="n">
-        <v>153.1656893025204</v>
+        <v>153.1656893025205</v>
       </c>
       <c r="H37" t="n">
-        <v>153.1656893025204</v>
+        <v>153.1656893025205</v>
       </c>
       <c r="I37" t="n">
         <v>135.5873989991865</v>
@@ -30192,25 +30192,25 @@
         <v>137.300838189878</v>
       </c>
       <c r="S37" t="n">
-        <v>153.1656893025204</v>
+        <v>153.1656893025205</v>
       </c>
       <c r="T37" t="n">
-        <v>153.1656893025204</v>
+        <v>153.1656893025205</v>
       </c>
       <c r="U37" t="n">
-        <v>153.1656893025204</v>
+        <v>153.1656893025205</v>
       </c>
       <c r="V37" t="n">
-        <v>153.1656893025204</v>
+        <v>153.1656893025205</v>
       </c>
       <c r="W37" t="n">
-        <v>153.1656893025204</v>
+        <v>153.1656893025205</v>
       </c>
       <c r="X37" t="n">
-        <v>153.1656893025204</v>
+        <v>129.9508740133471</v>
       </c>
       <c r="Y37" t="n">
-        <v>153.1656893025204</v>
+        <v>153.1656893025205</v>
       </c>
     </row>
     <row r="38">
@@ -30429,10 +30429,10 @@
         <v>137.300838189878</v>
       </c>
       <c r="S40" t="n">
+        <v>153.1656893025204</v>
+      </c>
+      <c r="T40" t="n">
         <v>129.9508740133479</v>
-      </c>
-      <c r="T40" t="n">
-        <v>153.1656893025204</v>
       </c>
       <c r="U40" t="n">
         <v>153.1656893025204</v>
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>132.2158845502344</v>
+        <v>132.2158845502343</v>
       </c>
       <c r="C41" t="n">
-        <v>132.2158845502344</v>
+        <v>132.2158845502343</v>
       </c>
       <c r="D41" t="n">
-        <v>132.2158845502344</v>
+        <v>132.2158845502343</v>
       </c>
       <c r="E41" t="n">
-        <v>132.2158845502344</v>
+        <v>132.2158845502343</v>
       </c>
       <c r="F41" t="n">
-        <v>132.2158845502344</v>
+        <v>132.2158845502343</v>
       </c>
       <c r="G41" t="n">
-        <v>132.2158845502344</v>
+        <v>132.2158845502343</v>
       </c>
       <c r="H41" t="n">
-        <v>132.2158845502344</v>
+        <v>132.2158845502343</v>
       </c>
       <c r="I41" t="n">
-        <v>132.2158845502344</v>
+        <v>132.2158845502343</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>56.32691617187029</v>
       </c>
       <c r="S41" t="n">
-        <v>132.2158845502344</v>
+        <v>132.2158845502343</v>
       </c>
       <c r="T41" t="n">
-        <v>132.2158845502344</v>
+        <v>132.2158845502343</v>
       </c>
       <c r="U41" t="n">
-        <v>132.2158845502344</v>
+        <v>132.2158845502343</v>
       </c>
       <c r="V41" t="n">
-        <v>132.2158845502344</v>
+        <v>132.2158845502343</v>
       </c>
       <c r="W41" t="n">
-        <v>132.2158845502344</v>
+        <v>132.2158845502343</v>
       </c>
       <c r="X41" t="n">
-        <v>132.2158845502344</v>
+        <v>132.2158845502343</v>
       </c>
       <c r="Y41" t="n">
-        <v>132.2158845502344</v>
+        <v>132.2158845502343</v>
       </c>
     </row>
     <row r="42">
@@ -30615,31 +30615,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>132.2158845502344</v>
+        <v>132.2158845502343</v>
       </c>
       <c r="C43" t="n">
-        <v>132.2158845502344</v>
+        <v>132.2158845502343</v>
       </c>
       <c r="D43" t="n">
-        <v>132.2158845502344</v>
+        <v>132.2158845502343</v>
       </c>
       <c r="E43" t="n">
-        <v>132.2158845502344</v>
+        <v>132.2158845502343</v>
       </c>
       <c r="F43" t="n">
-        <v>132.2158845502344</v>
+        <v>132.2158845502343</v>
       </c>
       <c r="G43" t="n">
-        <v>132.2158845502344</v>
+        <v>132.2158845502343</v>
       </c>
       <c r="H43" t="n">
-        <v>132.2158845502344</v>
+        <v>132.2158845502343</v>
       </c>
       <c r="I43" t="n">
-        <v>132.2158845502344</v>
+        <v>132.2158845502343</v>
       </c>
       <c r="J43" t="n">
-        <v>42.59173164781782</v>
+        <v>55.71102691339037</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30648,43 +30648,43 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>132.2158845502343</v>
       </c>
       <c r="N43" t="n">
-        <v>132.2158845502344</v>
+        <v>132.2158845502343</v>
       </c>
       <c r="O43" t="n">
-        <v>31.296605597819</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>132.2158845502344</v>
+        <v>18.17731033224807</v>
       </c>
       <c r="R43" t="n">
-        <v>132.2158845502344</v>
+        <v>132.2158845502343</v>
       </c>
       <c r="S43" t="n">
-        <v>132.2158845502344</v>
+        <v>132.2158845502343</v>
       </c>
       <c r="T43" t="n">
-        <v>132.2158845502344</v>
+        <v>132.2158845502343</v>
       </c>
       <c r="U43" t="n">
-        <v>132.2158845502344</v>
+        <v>132.2158845502343</v>
       </c>
       <c r="V43" t="n">
-        <v>132.2158845502344</v>
+        <v>132.2158845502343</v>
       </c>
       <c r="W43" t="n">
-        <v>132.2158845502344</v>
+        <v>132.2158845502343</v>
       </c>
       <c r="X43" t="n">
-        <v>132.2158845502344</v>
+        <v>132.2158845502343</v>
       </c>
       <c r="Y43" t="n">
-        <v>132.2158845502344</v>
+        <v>132.2158845502343</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>132.2158845502344</v>
+        <v>132.2158845502343</v>
       </c>
       <c r="C44" t="n">
-        <v>132.2158845502344</v>
+        <v>132.2158845502343</v>
       </c>
       <c r="D44" t="n">
-        <v>132.2158845502344</v>
+        <v>132.2158845502343</v>
       </c>
       <c r="E44" t="n">
-        <v>132.2158845502344</v>
+        <v>132.2158845502343</v>
       </c>
       <c r="F44" t="n">
-        <v>132.2158845502344</v>
+        <v>132.2158845502343</v>
       </c>
       <c r="G44" t="n">
-        <v>132.2158845502344</v>
+        <v>132.2158845502343</v>
       </c>
       <c r="H44" t="n">
-        <v>132.2158845502344</v>
+        <v>132.2158845502343</v>
       </c>
       <c r="I44" t="n">
-        <v>132.2158845502344</v>
+        <v>132.2158845502343</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30742,28 +30742,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>56.32691617187027</v>
+        <v>56.32691617187029</v>
       </c>
       <c r="S44" t="n">
-        <v>132.2158845502344</v>
+        <v>132.2158845502343</v>
       </c>
       <c r="T44" t="n">
-        <v>132.2158845502344</v>
+        <v>132.2158845502343</v>
       </c>
       <c r="U44" t="n">
-        <v>132.2158845502344</v>
+        <v>132.2158845502343</v>
       </c>
       <c r="V44" t="n">
-        <v>132.2158845502344</v>
+        <v>132.2158845502343</v>
       </c>
       <c r="W44" t="n">
-        <v>132.2158845502344</v>
+        <v>132.2158845502343</v>
       </c>
       <c r="X44" t="n">
-        <v>132.2158845502344</v>
+        <v>132.2158845502343</v>
       </c>
       <c r="Y44" t="n">
-        <v>132.2158845502344</v>
+        <v>132.2158845502343</v>
       </c>
     </row>
     <row r="45">
@@ -30852,34 +30852,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>132.2158845502344</v>
+        <v>132.2158845502343</v>
       </c>
       <c r="C46" t="n">
-        <v>132.2158845502344</v>
+        <v>132.2158845502343</v>
       </c>
       <c r="D46" t="n">
-        <v>132.2158845502344</v>
+        <v>132.2158845502343</v>
       </c>
       <c r="E46" t="n">
-        <v>132.2158845502344</v>
+        <v>132.2158845502343</v>
       </c>
       <c r="F46" t="n">
-        <v>132.2158845502344</v>
+        <v>132.2158845502343</v>
       </c>
       <c r="G46" t="n">
-        <v>132.2158845502344</v>
+        <v>132.2158845502343</v>
       </c>
       <c r="H46" t="n">
-        <v>132.2158845502344</v>
+        <v>132.2158845502343</v>
       </c>
       <c r="I46" t="n">
-        <v>132.2158845502344</v>
+        <v>132.2158845502343</v>
       </c>
       <c r="J46" t="n">
-        <v>42.59173164781781</v>
+        <v>42.59173164781782</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>132.2158845502343</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -30888,40 +30888,40 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>31.29660559782164</v>
       </c>
       <c r="O46" t="n">
-        <v>31.29660559781885</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>132.2158845502344</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>132.2158845502344</v>
+        <v>132.2158845502343</v>
       </c>
       <c r="R46" t="n">
-        <v>132.2158845502344</v>
+        <v>132.2158845502343</v>
       </c>
       <c r="S46" t="n">
-        <v>132.2158845502344</v>
+        <v>132.2158845502343</v>
       </c>
       <c r="T46" t="n">
-        <v>132.2158845502344</v>
+        <v>132.2158845502343</v>
       </c>
       <c r="U46" t="n">
-        <v>132.2158845502344</v>
+        <v>132.2158845502343</v>
       </c>
       <c r="V46" t="n">
-        <v>132.2158845502344</v>
+        <v>132.2158845502343</v>
       </c>
       <c r="W46" t="n">
-        <v>132.2158845502344</v>
+        <v>132.2158845502343</v>
       </c>
       <c r="X46" t="n">
-        <v>132.2158845502344</v>
+        <v>132.2158845502343</v>
       </c>
       <c r="Y46" t="n">
-        <v>132.2158845502344</v>
+        <v>132.2158845502343</v>
       </c>
     </row>
   </sheetData>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5317889474019042</v>
+        <v>0.5317889474019045</v>
       </c>
       <c r="H11" t="n">
-        <v>5.446183557579753</v>
+        <v>5.446183557579756</v>
       </c>
       <c r="I11" t="n">
-        <v>20.50179339471193</v>
+        <v>20.50179339471195</v>
       </c>
       <c r="J11" t="n">
-        <v>45.13492217455241</v>
+        <v>45.13492217455244</v>
       </c>
       <c r="K11" t="n">
-        <v>67.64554831807503</v>
+        <v>67.64554831807507</v>
       </c>
       <c r="L11" t="n">
-        <v>83.92028431712606</v>
+        <v>83.92028431712612</v>
       </c>
       <c r="M11" t="n">
-        <v>93.37748601048467</v>
+        <v>93.37748601048473</v>
       </c>
       <c r="N11" t="n">
-        <v>94.88843135729034</v>
+        <v>94.8884313572904</v>
       </c>
       <c r="O11" t="n">
-        <v>89.60045501156266</v>
+        <v>89.60045501156272</v>
       </c>
       <c r="P11" t="n">
-        <v>76.47191537257814</v>
+        <v>76.47191537257818</v>
       </c>
       <c r="Q11" t="n">
-        <v>57.42722369374742</v>
+        <v>57.42722369374746</v>
       </c>
       <c r="R11" t="n">
-        <v>33.4049874672349</v>
+        <v>33.40498746723492</v>
       </c>
       <c r="S11" t="n">
-        <v>12.1181406389209</v>
+        <v>12.11814063892091</v>
       </c>
       <c r="T11" t="n">
-        <v>2.327906117251837</v>
+        <v>2.327906117251838</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04254311579215233</v>
+        <v>0.04254311579215236</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2845321712443304</v>
+        <v>0.2845321712443306</v>
       </c>
       <c r="H12" t="n">
-        <v>2.747981759122875</v>
+        <v>2.747981759122877</v>
       </c>
       <c r="I12" t="n">
-        <v>9.796392738017516</v>
+        <v>9.796392738017524</v>
       </c>
       <c r="J12" t="n">
-        <v>26.88205044199176</v>
+        <v>26.88205044199178</v>
       </c>
       <c r="K12" t="n">
-        <v>45.9457059153619</v>
+        <v>45.94570591536193</v>
       </c>
       <c r="L12" t="n">
-        <v>61.77967165548498</v>
+        <v>61.77967165548502</v>
       </c>
       <c r="M12" t="n">
-        <v>72.09396286309195</v>
+        <v>72.09396286309199</v>
       </c>
       <c r="N12" t="n">
-        <v>74.00207553779626</v>
+        <v>74.00207553779632</v>
       </c>
       <c r="O12" t="n">
-        <v>67.69744163811926</v>
+        <v>67.6974416381193</v>
       </c>
       <c r="P12" t="n">
-        <v>54.33316522647218</v>
+        <v>54.33316522647222</v>
       </c>
       <c r="Q12" t="n">
-        <v>36.32028206971488</v>
+        <v>36.3202820697149</v>
       </c>
       <c r="R12" t="n">
-        <v>17.66595357953834</v>
+        <v>17.66595357953835</v>
       </c>
       <c r="S12" t="n">
-        <v>5.285060286051484</v>
+        <v>5.285060286051487</v>
       </c>
       <c r="T12" t="n">
-        <v>1.14686432181377</v>
+        <v>1.146864321813771</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01871922179239017</v>
+        <v>0.01871922179239018</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2385422143161412</v>
+        <v>0.2385422143161413</v>
       </c>
       <c r="H13" t="n">
-        <v>2.120857141828966</v>
+        <v>2.120857141828967</v>
       </c>
       <c r="I13" t="n">
-        <v>7.173614954161776</v>
+        <v>7.17361495416178</v>
       </c>
       <c r="J13" t="n">
-        <v>16.86493455215118</v>
+        <v>16.86493455215119</v>
       </c>
       <c r="K13" t="n">
-        <v>27.71426817236622</v>
+        <v>27.71426817236624</v>
       </c>
       <c r="L13" t="n">
-        <v>35.46472157205613</v>
+        <v>35.46472157205615</v>
       </c>
       <c r="M13" t="n">
-        <v>37.39257637684747</v>
+        <v>37.3925763768475</v>
       </c>
       <c r="N13" t="n">
-        <v>36.50346448712371</v>
+        <v>36.50346448712373</v>
       </c>
       <c r="O13" t="n">
-        <v>33.71685771079422</v>
+        <v>33.71685771079424</v>
       </c>
       <c r="P13" t="n">
-        <v>28.85059653874492</v>
+        <v>28.85059653874494</v>
       </c>
       <c r="Q13" t="n">
-        <v>19.97465760059979</v>
+        <v>19.9746576005998</v>
       </c>
       <c r="R13" t="n">
-        <v>10.72572538188758</v>
+        <v>10.72572538188759</v>
       </c>
       <c r="S13" t="n">
-        <v>4.157140225854932</v>
+        <v>4.157140225854935</v>
       </c>
       <c r="T13" t="n">
-        <v>1.01922582480533</v>
+        <v>1.019225824805331</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01301139350815317</v>
+        <v>0.01301139350815318</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5317889474019042</v>
+        <v>0.5317889474019049</v>
       </c>
       <c r="H29" t="n">
-        <v>5.446183557579753</v>
+        <v>5.44618355757976</v>
       </c>
       <c r="I29" t="n">
-        <v>20.50179339471193</v>
+        <v>20.50179339471196</v>
       </c>
       <c r="J29" t="n">
-        <v>45.13492217455241</v>
+        <v>45.13492217455246</v>
       </c>
       <c r="K29" t="n">
-        <v>67.64554831807503</v>
+        <v>67.64554831807511</v>
       </c>
       <c r="L29" t="n">
-        <v>83.92028431712606</v>
+        <v>83.92028431712617</v>
       </c>
       <c r="M29" t="n">
-        <v>93.37748601048467</v>
+        <v>93.3774860104848</v>
       </c>
       <c r="N29" t="n">
-        <v>94.88843135729034</v>
+        <v>94.88843135729047</v>
       </c>
       <c r="O29" t="n">
-        <v>89.60045501156266</v>
+        <v>89.60045501156277</v>
       </c>
       <c r="P29" t="n">
-        <v>76.47191537257814</v>
+        <v>76.47191537257824</v>
       </c>
       <c r="Q29" t="n">
-        <v>57.42722369374742</v>
+        <v>57.42722369374749</v>
       </c>
       <c r="R29" t="n">
-        <v>33.4049874672349</v>
+        <v>33.40498746723494</v>
       </c>
       <c r="S29" t="n">
-        <v>12.1181406389209</v>
+        <v>12.11814063892092</v>
       </c>
       <c r="T29" t="n">
-        <v>2.327906117251837</v>
+        <v>2.32790611725184</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04254311579215233</v>
+        <v>0.04254311579215238</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2845321712443304</v>
+        <v>0.2845321712443307</v>
       </c>
       <c r="H30" t="n">
-        <v>2.747981759122875</v>
+        <v>2.747981759122879</v>
       </c>
       <c r="I30" t="n">
-        <v>9.796392738017516</v>
+        <v>9.796392738017529</v>
       </c>
       <c r="J30" t="n">
-        <v>26.88205044199176</v>
+        <v>26.8820504419918</v>
       </c>
       <c r="K30" t="n">
-        <v>45.9457059153619</v>
+        <v>45.94570591536196</v>
       </c>
       <c r="L30" t="n">
-        <v>61.77967165548498</v>
+        <v>61.77967165548507</v>
       </c>
       <c r="M30" t="n">
-        <v>72.09396286309195</v>
+        <v>72.09396286309203</v>
       </c>
       <c r="N30" t="n">
-        <v>74.00207553779626</v>
+        <v>74.00207553779636</v>
       </c>
       <c r="O30" t="n">
-        <v>67.69744163811926</v>
+        <v>67.69744163811934</v>
       </c>
       <c r="P30" t="n">
-        <v>54.33316522647218</v>
+        <v>54.33316522647225</v>
       </c>
       <c r="Q30" t="n">
-        <v>36.32028206971488</v>
+        <v>36.32028206971493</v>
       </c>
       <c r="R30" t="n">
-        <v>17.66595357953834</v>
+        <v>17.66595357953837</v>
       </c>
       <c r="S30" t="n">
-        <v>5.285060286051484</v>
+        <v>5.285060286051491</v>
       </c>
       <c r="T30" t="n">
-        <v>1.14686432181377</v>
+        <v>1.146864321813771</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01871922179239017</v>
+        <v>0.01871922179239019</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2385422143161412</v>
+        <v>0.2385422143161415</v>
       </c>
       <c r="H31" t="n">
-        <v>2.120857141828966</v>
+        <v>2.120857141828969</v>
       </c>
       <c r="I31" t="n">
-        <v>7.173614954161776</v>
+        <v>7.173614954161785</v>
       </c>
       <c r="J31" t="n">
-        <v>16.86493455215118</v>
+        <v>16.8649345521512</v>
       </c>
       <c r="K31" t="n">
-        <v>27.71426817236622</v>
+        <v>27.71426817236625</v>
       </c>
       <c r="L31" t="n">
-        <v>35.46472157205613</v>
+        <v>35.46472157205617</v>
       </c>
       <c r="M31" t="n">
-        <v>37.39257637684747</v>
+        <v>37.39257637684752</v>
       </c>
       <c r="N31" t="n">
-        <v>36.50346448712371</v>
+        <v>36.50346448712375</v>
       </c>
       <c r="O31" t="n">
-        <v>33.71685771079422</v>
+        <v>33.71685771079427</v>
       </c>
       <c r="P31" t="n">
-        <v>28.85059653874492</v>
+        <v>28.85059653874496</v>
       </c>
       <c r="Q31" t="n">
-        <v>19.97465760059979</v>
+        <v>19.97465760059982</v>
       </c>
       <c r="R31" t="n">
-        <v>10.72572538188758</v>
+        <v>10.7257253818876</v>
       </c>
       <c r="S31" t="n">
-        <v>4.157140225854932</v>
+        <v>4.157140225854937</v>
       </c>
       <c r="T31" t="n">
-        <v>1.01922582480533</v>
+        <v>1.019225824805332</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01301139350815317</v>
+        <v>0.01301139350815319</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5317889474019045</v>
+        <v>0.5317889474019042</v>
       </c>
       <c r="H44" t="n">
-        <v>5.446183557579756</v>
+        <v>5.446183557579753</v>
       </c>
       <c r="I44" t="n">
-        <v>20.50179339471195</v>
+        <v>20.50179339471193</v>
       </c>
       <c r="J44" t="n">
-        <v>45.13492217455244</v>
+        <v>45.13492217455241</v>
       </c>
       <c r="K44" t="n">
-        <v>67.64554831807507</v>
+        <v>67.64554831807503</v>
       </c>
       <c r="L44" t="n">
-        <v>83.92028431712612</v>
+        <v>83.92028431712606</v>
       </c>
       <c r="M44" t="n">
-        <v>93.37748601048473</v>
+        <v>93.37748601048467</v>
       </c>
       <c r="N44" t="n">
-        <v>94.8884313572904</v>
+        <v>94.88843135729034</v>
       </c>
       <c r="O44" t="n">
-        <v>89.60045501156272</v>
+        <v>89.60045501156266</v>
       </c>
       <c r="P44" t="n">
-        <v>76.47191537257818</v>
+        <v>76.47191537257814</v>
       </c>
       <c r="Q44" t="n">
-        <v>57.42722369374746</v>
+        <v>57.42722369374742</v>
       </c>
       <c r="R44" t="n">
-        <v>33.40498746723492</v>
+        <v>33.4049874672349</v>
       </c>
       <c r="S44" t="n">
-        <v>12.11814063892091</v>
+        <v>12.1181406389209</v>
       </c>
       <c r="T44" t="n">
-        <v>2.327906117251838</v>
+        <v>2.327906117251837</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04254311579215236</v>
+        <v>0.04254311579215233</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2845321712443306</v>
+        <v>0.2845321712443304</v>
       </c>
       <c r="H45" t="n">
-        <v>2.747981759122877</v>
+        <v>2.747981759122875</v>
       </c>
       <c r="I45" t="n">
-        <v>9.796392738017524</v>
+        <v>9.796392738017516</v>
       </c>
       <c r="J45" t="n">
-        <v>26.88205044199178</v>
+        <v>26.88205044199176</v>
       </c>
       <c r="K45" t="n">
-        <v>45.94570591536193</v>
+        <v>45.9457059153619</v>
       </c>
       <c r="L45" t="n">
-        <v>61.77967165548502</v>
+        <v>61.77967165548498</v>
       </c>
       <c r="M45" t="n">
-        <v>72.09396286309199</v>
+        <v>72.09396286309195</v>
       </c>
       <c r="N45" t="n">
-        <v>74.00207553779632</v>
+        <v>74.00207553779626</v>
       </c>
       <c r="O45" t="n">
-        <v>67.6974416381193</v>
+        <v>67.69744163811926</v>
       </c>
       <c r="P45" t="n">
-        <v>54.33316522647222</v>
+        <v>54.33316522647218</v>
       </c>
       <c r="Q45" t="n">
-        <v>36.3202820697149</v>
+        <v>36.32028206971488</v>
       </c>
       <c r="R45" t="n">
-        <v>17.66595357953835</v>
+        <v>17.66595357953834</v>
       </c>
       <c r="S45" t="n">
-        <v>5.285060286051487</v>
+        <v>5.285060286051484</v>
       </c>
       <c r="T45" t="n">
-        <v>1.146864321813771</v>
+        <v>1.14686432181377</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01871922179239018</v>
+        <v>0.01871922179239017</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2385422143161413</v>
+        <v>0.2385422143161412</v>
       </c>
       <c r="H46" t="n">
-        <v>2.120857141828967</v>
+        <v>2.120857141828966</v>
       </c>
       <c r="I46" t="n">
-        <v>7.17361495416178</v>
+        <v>7.173614954161776</v>
       </c>
       <c r="J46" t="n">
-        <v>16.86493455215119</v>
+        <v>16.86493455215118</v>
       </c>
       <c r="K46" t="n">
-        <v>27.71426817236624</v>
+        <v>27.71426817236622</v>
       </c>
       <c r="L46" t="n">
-        <v>35.46472157205615</v>
+        <v>35.46472157205613</v>
       </c>
       <c r="M46" t="n">
-        <v>37.3925763768475</v>
+        <v>37.39257637684747</v>
       </c>
       <c r="N46" t="n">
-        <v>36.50346448712373</v>
+        <v>36.50346448712371</v>
       </c>
       <c r="O46" t="n">
-        <v>33.71685771079424</v>
+        <v>33.71685771079422</v>
       </c>
       <c r="P46" t="n">
-        <v>28.85059653874494</v>
+        <v>28.85059653874492</v>
       </c>
       <c r="Q46" t="n">
-        <v>19.9746576005998</v>
+        <v>19.97465760059979</v>
       </c>
       <c r="R46" t="n">
-        <v>10.72572538188759</v>
+        <v>10.72572538188758</v>
       </c>
       <c r="S46" t="n">
-        <v>4.157140225854935</v>
+        <v>4.157140225854932</v>
       </c>
       <c r="T46" t="n">
-        <v>1.019225824805331</v>
+        <v>1.01922582480533</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01301139350815318</v>
+        <v>0.01301139350815317</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35173,25 +35173,25 @@
         <v>10.00967878293136</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>9.605247316954339</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>9.605247316954339</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>10.00967878293136</v>
       </c>
       <c r="Q8" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35255,10 +35255,10 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>9.605247316954339</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>10.00967878293136</v>
       </c>
       <c r="Q9" t="n">
-        <v>9.605247316954333</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>9.605247316954339</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="N10" t="n">
         <v>10.00967878293136</v>
       </c>
       <c r="O10" t="n">
-        <v>10.00967878293136</v>
+        <v>9.605247316954333</v>
       </c>
       <c r="P10" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,13 +35407,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>88.61024245675313</v>
+        <v>117.8607244703157</v>
       </c>
       <c r="K11" t="n">
-        <v>310.2115806865424</v>
+        <v>310.2115806865425</v>
       </c>
       <c r="L11" t="n">
-        <v>435.319651069597</v>
+        <v>253.2558305274003</v>
       </c>
       <c r="M11" t="n">
         <v>490.5887650540079</v>
@@ -35428,7 +35428,7 @@
         <v>306.9334269443491</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>152.8133385286333</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>87.74482471785656</v>
+        <v>87.74482471785657</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>277.7543448650475</v>
       </c>
       <c r="L12" t="n">
-        <v>247.1622587914533</v>
+        <v>431.2966869788341</v>
       </c>
       <c r="M12" t="n">
         <v>562.026643176452</v>
       </c>
       <c r="N12" t="n">
-        <v>590.4320211167075</v>
+        <v>488.0238064985268</v>
       </c>
       <c r="O12" t="n">
         <v>463.8590080867565</v>
       </c>
       <c r="P12" t="n">
-        <v>359.4805584342472</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>195.6855646814262</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>60.04919017668339</v>
+        <v>60.04919017668342</v>
       </c>
       <c r="K13" t="n">
         <v>164.2988139813557</v>
@@ -35574,19 +35574,19 @@
         <v>239.728955922072</v>
       </c>
       <c r="M13" t="n">
-        <v>259.2188579261989</v>
+        <v>259.218857926199</v>
       </c>
       <c r="N13" t="n">
-        <v>258.7629133314232</v>
+        <v>258.7629133314233</v>
       </c>
       <c r="O13" t="n">
         <v>235.8160083188204</v>
       </c>
       <c r="P13" t="n">
-        <v>195.0960473815671</v>
+        <v>195.0960473815672</v>
       </c>
       <c r="Q13" t="n">
-        <v>84.46361149225314</v>
+        <v>84.46361149225318</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,10 +35644,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>117.8607244703157</v>
       </c>
       <c r="K14" t="n">
-        <v>310.2115806865424</v>
+        <v>128.1477601443462</v>
       </c>
       <c r="L14" t="n">
         <v>435.319651069597</v>
@@ -35665,7 +35665,7 @@
         <v>306.9334269443491</v>
       </c>
       <c r="Q14" t="n">
-        <v>88.61024245675299</v>
+        <v>152.8133385286333</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>87.74482471785656</v>
       </c>
       <c r="K15" t="n">
         <v>277.7543448650474</v>
@@ -35732,7 +35732,7 @@
         <v>431.2966869788341</v>
       </c>
       <c r="M15" t="n">
-        <v>562.026643176452</v>
+        <v>100.1378701240237</v>
       </c>
       <c r="N15" t="n">
         <v>590.4320211167075</v>
@@ -35741,10 +35741,10 @@
         <v>463.8590080867565</v>
       </c>
       <c r="P15" t="n">
-        <v>181.0221747811022</v>
+        <v>359.4805584342472</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>195.6855646814262</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,16 +35802,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>60.0491901766834</v>
+        <v>60.04919017668343</v>
       </c>
       <c r="K16" t="n">
-        <v>164.2988139813557</v>
+        <v>164.2988139813558</v>
       </c>
       <c r="L16" t="n">
         <v>239.728955922072</v>
       </c>
       <c r="M16" t="n">
-        <v>259.2188579261989</v>
+        <v>259.218857926199</v>
       </c>
       <c r="N16" t="n">
         <v>258.7629133314233</v>
@@ -35820,10 +35820,10 @@
         <v>235.8160083188204</v>
       </c>
       <c r="P16" t="n">
-        <v>195.0960473815671</v>
+        <v>195.0960473815672</v>
       </c>
       <c r="Q16" t="n">
-        <v>84.46361149225315</v>
+        <v>84.46361149225318</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,10 +35881,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>117.8607244703157</v>
       </c>
       <c r="K17" t="n">
-        <v>310.2115806865424</v>
+        <v>128.1477601443462</v>
       </c>
       <c r="L17" t="n">
         <v>435.319651069597</v>
@@ -35899,7 +35899,7 @@
         <v>397.6858938730111</v>
       </c>
       <c r="P17" t="n">
-        <v>242.730330872469</v>
+        <v>306.9334269443491</v>
       </c>
       <c r="Q17" t="n">
         <v>152.8133385286333</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>87.74482471785656</v>
       </c>
       <c r="K18" t="n">
         <v>277.7543448650474</v>
@@ -35972,10 +35972,10 @@
         <v>562.026643176452</v>
       </c>
       <c r="N18" t="n">
-        <v>590.4320211167075</v>
+        <v>128.5432480642791</v>
       </c>
       <c r="O18" t="n">
-        <v>89.71505975218493</v>
+        <v>463.8590080867565</v>
       </c>
       <c r="P18" t="n">
         <v>359.4805584342472</v>
@@ -36130,10 +36130,10 @@
         <v>490.5887650540079</v>
       </c>
       <c r="N20" t="n">
-        <v>294.9774983784441</v>
+        <v>477.0413189206396</v>
       </c>
       <c r="O20" t="n">
-        <v>397.6858938730111</v>
+        <v>215.6220733308148</v>
       </c>
       <c r="P20" t="n">
         <v>306.9334269443491</v>
@@ -36206,10 +36206,10 @@
         <v>431.2966869788341</v>
       </c>
       <c r="M21" t="n">
-        <v>562.026643176452</v>
+        <v>100.1378701240237</v>
       </c>
       <c r="N21" t="n">
-        <v>128.54324806428</v>
+        <v>590.4320211167075</v>
       </c>
       <c r="O21" t="n">
         <v>463.8590080867565</v>
@@ -36355,10 +36355,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>117.8607244703157</v>
       </c>
       <c r="K23" t="n">
-        <v>310.2115806865424</v>
+        <v>128.1477601443462</v>
       </c>
       <c r="L23" t="n">
         <v>435.319651069597</v>
@@ -36376,7 +36376,7 @@
         <v>306.9334269443491</v>
       </c>
       <c r="Q23" t="n">
-        <v>88.61024245675299</v>
+        <v>152.8133385286333</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,19 +36434,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>87.74482471785656</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>277.7543448650474</v>
       </c>
       <c r="L24" t="n">
-        <v>431.2966869788341</v>
+        <v>57.15273864426248</v>
       </c>
       <c r="M24" t="n">
         <v>562.026643176452</v>
       </c>
       <c r="N24" t="n">
-        <v>128.54324806428</v>
+        <v>590.4320211167075</v>
       </c>
       <c r="O24" t="n">
         <v>463.8590080867565</v>
@@ -36592,10 +36592,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>220.501646294817</v>
+        <v>123.6888307603358</v>
       </c>
       <c r="K26" t="n">
-        <v>316.0396869765617</v>
+        <v>412.8525025110437</v>
       </c>
       <c r="L26" t="n">
         <v>537.9605728940983</v>
@@ -36616,7 +36616,7 @@
         <v>255.4542603531346</v>
       </c>
       <c r="R26" t="n">
-        <v>46.31400565263098</v>
+        <v>46.31400565263097</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,10 +36680,10 @@
         <v>431.2966869788342</v>
       </c>
       <c r="M27" t="n">
-        <v>562.026643176452</v>
+        <v>100.1378701240236</v>
       </c>
       <c r="N27" t="n">
-        <v>128.5432480642793</v>
+        <v>590.4320211167076</v>
       </c>
       <c r="O27" t="n">
         <v>463.8590080867566</v>
@@ -36750,13 +36750,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>60.04919017668344</v>
+        <v>60.04919017668342</v>
       </c>
       <c r="K28" t="n">
-        <v>164.2988139813558</v>
+        <v>164.2988139813557</v>
       </c>
       <c r="L28" t="n">
-        <v>239.7289559220721</v>
+        <v>239.728955922072</v>
       </c>
       <c r="M28" t="n">
         <v>259.218857926199</v>
@@ -36771,7 +36771,7 @@
         <v>195.0960473815672</v>
       </c>
       <c r="Q28" t="n">
-        <v>84.46361149225319</v>
+        <v>84.46361149225318</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>220.5016462948169</v>
+        <v>220.501646294817</v>
       </c>
       <c r="K29" t="n">
-        <v>412.8525025110437</v>
+        <v>412.8525025110438</v>
       </c>
       <c r="L29" t="n">
         <v>537.9605728940983</v>
       </c>
       <c r="M29" t="n">
-        <v>593.229686878509</v>
+        <v>593.2296868785093</v>
       </c>
       <c r="N29" t="n">
-        <v>579.6822407451408</v>
+        <v>482.8694252106596</v>
       </c>
       <c r="O29" t="n">
-        <v>500.3268156975123</v>
+        <v>500.3268156975124</v>
       </c>
       <c r="P29" t="n">
-        <v>312.7615332343688</v>
+        <v>409.5743487688504</v>
       </c>
       <c r="Q29" t="n">
-        <v>255.4542603531345</v>
+        <v>255.4542603531346</v>
       </c>
       <c r="R29" t="n">
-        <v>46.31400565263095</v>
+        <v>46.31400565263099</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>87.74482471785656</v>
+        <v>87.74482471785659</v>
       </c>
       <c r="K30" t="n">
-        <v>277.7543448650474</v>
+        <v>277.7543448650475</v>
       </c>
       <c r="L30" t="n">
-        <v>431.2966869788341</v>
+        <v>431.2966869788342</v>
       </c>
       <c r="M30" t="n">
-        <v>562.026643176452</v>
+        <v>100.1378701240236</v>
       </c>
       <c r="N30" t="n">
-        <v>128.5432480642796</v>
+        <v>590.4320211167076</v>
       </c>
       <c r="O30" t="n">
-        <v>463.8590080867565</v>
+        <v>463.8590080867566</v>
       </c>
       <c r="P30" t="n">
-        <v>359.4805584342472</v>
+        <v>359.4805584342473</v>
       </c>
       <c r="Q30" t="n">
-        <v>195.6855646814262</v>
+        <v>195.6855646814263</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>60.04919017668342</v>
+        <v>60.04919017668344</v>
       </c>
       <c r="K31" t="n">
-        <v>164.2988139813557</v>
+        <v>164.2988139813558</v>
       </c>
       <c r="L31" t="n">
-        <v>239.728955922072</v>
+        <v>239.7289559220721</v>
       </c>
       <c r="M31" t="n">
-        <v>259.2188579261989</v>
+        <v>259.218857926199</v>
       </c>
       <c r="N31" t="n">
         <v>258.7629133314233</v>
       </c>
       <c r="O31" t="n">
-        <v>235.8160083188203</v>
+        <v>235.8160083188204</v>
       </c>
       <c r="P31" t="n">
         <v>195.0960473815672</v>
       </c>
       <c r="Q31" t="n">
-        <v>84.46361149225316</v>
+        <v>84.46361149225319</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>223.091350389537</v>
+        <v>168.5675402560495</v>
       </c>
       <c r="K32" t="n">
-        <v>415.4422066057638</v>
+        <v>415.4422066057636</v>
       </c>
       <c r="L32" t="n">
-        <v>540.5502769888183</v>
+        <v>435.319651069597</v>
       </c>
       <c r="M32" t="n">
-        <v>595.8193909732291</v>
+        <v>595.8193909732289</v>
       </c>
       <c r="N32" t="n">
-        <v>582.2719448398608</v>
+        <v>582.2719448398607</v>
       </c>
       <c r="O32" t="n">
-        <v>497.2964194060939</v>
+        <v>502.9165197922322</v>
       </c>
       <c r="P32" t="n">
-        <v>412.1640528635703</v>
+        <v>412.1640528635702</v>
       </c>
       <c r="Q32" t="n">
-        <v>152.8133385286333</v>
+        <v>258.0439644478544</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>48.90370974735082</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>87.74482471785656</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>277.7543448650474</v>
@@ -37154,10 +37154,10 @@
         <v>431.2966869788341</v>
       </c>
       <c r="M33" t="n">
-        <v>562.026643176452</v>
+        <v>383.5682595233071</v>
       </c>
       <c r="N33" t="n">
-        <v>128.5432480642796</v>
+        <v>590.4320211167075</v>
       </c>
       <c r="O33" t="n">
         <v>463.8590080867565</v>
@@ -37166,7 +37166,7 @@
         <v>359.4805584342472</v>
       </c>
       <c r="Q33" t="n">
-        <v>195.6855646814262</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>62.63889427140348</v>
+        <v>62.6388942714033</v>
       </c>
       <c r="K34" t="n">
-        <v>166.8885180760758</v>
+        <v>166.8885180760756</v>
       </c>
       <c r="L34" t="n">
-        <v>242.3186600167921</v>
+        <v>242.3186600167919</v>
       </c>
       <c r="M34" t="n">
-        <v>261.808562020919</v>
+        <v>198.8143600196966</v>
       </c>
       <c r="N34" t="n">
-        <v>198.3584154249166</v>
+        <v>261.3526174261432</v>
       </c>
       <c r="O34" t="n">
-        <v>238.4057124135404</v>
+        <v>238.4057124135402</v>
       </c>
       <c r="P34" t="n">
-        <v>197.6857514762872</v>
+        <v>197.685751476287</v>
       </c>
       <c r="Q34" t="n">
-        <v>87.05331558697323</v>
+        <v>87.05331558697304</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37309,7 +37309,7 @@
         <v>310.2115806865424</v>
       </c>
       <c r="L35" t="n">
-        <v>435.319651069597</v>
+        <v>435.3196510695975</v>
       </c>
       <c r="M35" t="n">
         <v>490.5887650540079</v>
@@ -37382,10 +37382,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>87.74482471785656</v>
       </c>
       <c r="K36" t="n">
-        <v>99.29596121190238</v>
+        <v>277.7543448650474</v>
       </c>
       <c r="L36" t="n">
         <v>431.2966869788341</v>
@@ -37394,7 +37394,7 @@
         <v>562.026643176452</v>
       </c>
       <c r="N36" t="n">
-        <v>590.4320211167075</v>
+        <v>128.5432480642796</v>
       </c>
       <c r="O36" t="n">
         <v>463.8590080867565</v>
@@ -37403,7 +37403,7 @@
         <v>359.4805584342472</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>195.6855646814262</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37561,7 +37561,7 @@
         <v>306.9334269443491</v>
       </c>
       <c r="Q38" t="n">
-        <v>152.8133385286333</v>
+        <v>152.8133385286338</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37783,7 +37783,7 @@
         <v>310.2115806865424</v>
       </c>
       <c r="L41" t="n">
-        <v>435.3196510695975</v>
+        <v>435.319651069597</v>
       </c>
       <c r="M41" t="n">
         <v>490.5887650540079</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>87.74482471785656</v>
       </c>
       <c r="K42" t="n">
-        <v>277.7543448650474</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>431.2966869788341</v>
@@ -37868,7 +37868,7 @@
         <v>562.026643176452</v>
       </c>
       <c r="N42" t="n">
-        <v>411.9736374635623</v>
+        <v>406.2975929293268</v>
       </c>
       <c r="O42" t="n">
         <v>463.8590080867565</v>
@@ -37877,7 +37877,7 @@
         <v>359.4805584342472</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>195.6855646814262</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>13.11929526557256</v>
       </c>
       <c r="K43" t="n">
         <v>61.65789215685452</v>
@@ -37944,19 +37944,19 @@
         <v>137.0880340975708</v>
       </c>
       <c r="M43" t="n">
-        <v>156.5779361016977</v>
+        <v>288.793820651932</v>
       </c>
       <c r="N43" t="n">
-        <v>288.3378760571565</v>
+        <v>288.3378760571564</v>
       </c>
       <c r="O43" t="n">
-        <v>164.4716920921381</v>
+        <v>133.1750864943191</v>
       </c>
       <c r="P43" t="n">
         <v>92.45512555706593</v>
       </c>
       <c r="Q43" t="n">
-        <v>114.0385742179864</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,10 +38017,10 @@
         <v>117.8607244703157</v>
       </c>
       <c r="K44" t="n">
-        <v>310.2115806865425</v>
+        <v>310.2115806865424</v>
       </c>
       <c r="L44" t="n">
-        <v>435.3196510695971</v>
+        <v>435.319651069597</v>
       </c>
       <c r="M44" t="n">
         <v>490.5887650540079</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>87.74482471785656</v>
       </c>
       <c r="K45" t="n">
-        <v>277.7543448650475</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>252.8383033256889</v>
+        <v>431.2966869788341</v>
       </c>
       <c r="M45" t="n">
         <v>562.026643176452</v>
       </c>
       <c r="N45" t="n">
-        <v>590.4320211167076</v>
+        <v>590.4320211167075</v>
       </c>
       <c r="O45" t="n">
-        <v>463.8590080867565</v>
+        <v>279.7245798993756</v>
       </c>
       <c r="P45" t="n">
         <v>359.4805584342472</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>195.6855646814262</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,7 +38175,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>61.65789215685453</v>
+        <v>193.8737767070888</v>
       </c>
       <c r="L46" t="n">
         <v>137.0880340975708</v>
@@ -38184,16 +38184,16 @@
         <v>156.5779361016977</v>
       </c>
       <c r="N46" t="n">
-        <v>156.1219915069221</v>
+        <v>187.4185971047437</v>
       </c>
       <c r="O46" t="n">
-        <v>164.471692092138</v>
+        <v>133.1750864943191</v>
       </c>
       <c r="P46" t="n">
-        <v>224.6710101073003</v>
+        <v>92.45512555706593</v>
       </c>
       <c r="Q46" t="n">
-        <v>114.0385742179864</v>
+        <v>114.0385742179862</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
